--- a/out/img/core/BR_153_training_testing_data.xlsx
+++ b/out/img/core/BR_153_training_testing_data.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>13231</v>
+        <v>370468</v>
       </c>
     </row>
     <row r="3">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>10553</v>
+        <v>295484</v>
       </c>
     </row>
     <row r="4">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>11457</v>
+        <v>320796</v>
       </c>
     </row>
     <row r="5">
@@ -514,10 +514,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>13313</v>
+        <v>372764</v>
       </c>
     </row>
     <row r="6">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>10747</v>
+        <v>300916</v>
       </c>
     </row>
     <row r="7">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>13285</v>
+        <v>371980</v>
       </c>
     </row>
     <row r="8">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>15308</v>
+        <v>428624</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>13782</v>
+        <v>385896</v>
       </c>
     </row>
     <row r="10">
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>13726</v>
+        <v>384328</v>
       </c>
     </row>
     <row r="11">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>13985</v>
+        <v>391580</v>
       </c>
     </row>
     <row r="12">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>13381</v>
+        <v>374668</v>
       </c>
     </row>
     <row r="13">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>15715</v>
+        <v>440020</v>
       </c>
     </row>
     <row r="14">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>15844</v>
+        <v>443632</v>
       </c>
     </row>
     <row r="15">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>12632</v>
+        <v>353696</v>
       </c>
     </row>
     <row r="16">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>14073</v>
+        <v>394044</v>
       </c>
     </row>
     <row r="17">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>13740</v>
+        <v>384720</v>
       </c>
     </row>
     <row r="18">
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>392</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>13834</v>
+        <v>387352</v>
       </c>
     </row>
     <row r="19">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>14088</v>
+        <v>394464</v>
       </c>
     </row>
     <row r="20">
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>16153</v>
+        <v>452284</v>
       </c>
     </row>
     <row r="21">
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>14719</v>
+        <v>412132</v>
       </c>
     </row>
     <row r="22">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>14254</v>
+        <v>399112</v>
       </c>
     </row>
     <row r="23">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>14957</v>
+        <v>418796</v>
       </c>
     </row>
     <row r="24">
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>504</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>14345</v>
+        <v>401660</v>
       </c>
     </row>
     <row r="25">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>16518</v>
+        <v>462504</v>
       </c>
     </row>
     <row r="26">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>16034</v>
+        <v>448952</v>
       </c>
     </row>
     <row r="27">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>364</v>
+        <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>13467</v>
+        <v>377076</v>
       </c>
     </row>
     <row r="28">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>12435</v>
+        <v>348180</v>
       </c>
     </row>
     <row r="29">
@@ -898,10 +898,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>8022</v>
+        <v>224616</v>
       </c>
     </row>
     <row r="30">
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>11139</v>
+        <v>311892</v>
       </c>
     </row>
     <row r="31">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>11888</v>
+        <v>332864</v>
       </c>
     </row>
     <row r="32">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>13413</v>
+        <v>375564</v>
       </c>
     </row>
     <row r="33">
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>392</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>14170</v>
+        <v>396760</v>
       </c>
     </row>
     <row r="34">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>14730</v>
+        <v>412440</v>
       </c>
     </row>
     <row r="35">
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>15851</v>
+        <v>443828</v>
       </c>
     </row>
     <row r="36">
@@ -1010,10 +1010,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>14125</v>
+        <v>395500</v>
       </c>
     </row>
     <row r="37">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>448</v>
+        <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>16485</v>
+        <v>461580</v>
       </c>
     </row>
     <row r="38">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>364</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>14941</v>
+        <v>418348</v>
       </c>
     </row>
     <row r="39">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4760</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>1339</v>
+        <v>910520</v>
       </c>
     </row>
     <row r="40">
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5241</v>
+        <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>1592</v>
+        <v>1198776</v>
       </c>
     </row>
     <row r="41">
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5105</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>1246</v>
+        <v>910826</v>
       </c>
     </row>
     <row r="42">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9800</v>
+        <v>13</v>
       </c>
       <c r="D42" t="n">
-        <v>1329</v>
+        <v>1004724</v>
       </c>
     </row>
     <row r="43">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8004</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>1239</v>
+        <v>901992</v>
       </c>
     </row>
     <row r="44">
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3028</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>1372</v>
+        <v>1042720</v>
       </c>
     </row>
     <row r="45">
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6048</v>
+        <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>1404</v>
+        <v>1060020</v>
       </c>
     </row>
     <row r="46">
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5812</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>1414</v>
+        <v>1027978</v>
       </c>
     </row>
     <row r="47">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10584</v>
+        <v>14</v>
       </c>
       <c r="D47" t="n">
-        <v>1412</v>
+        <v>1067472</v>
       </c>
     </row>
     <row r="48">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3650</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>1374</v>
+        <v>997524</v>
       </c>
     </row>
     <row r="49">
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>9076</v>
+        <v>12</v>
       </c>
       <c r="D49" t="n">
-        <v>1557</v>
+        <v>1180206</v>
       </c>
     </row>
     <row r="50">
@@ -1234,10 +1234,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6744</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
-        <v>705</v>
+        <v>529455</v>
       </c>
     </row>
     <row r="51">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>9507</v>
+        <v>14</v>
       </c>
       <c r="D51" t="n">
-        <v>703</v>
+        <v>476634</v>
       </c>
     </row>
     <row r="52">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8271</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>442</v>
+        <v>332826</v>
       </c>
     </row>
     <row r="53">
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5796</v>
+        <v>8</v>
       </c>
       <c r="D53" t="n">
-        <v>751</v>
+        <v>544475</v>
       </c>
     </row>
     <row r="54">
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4528</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>713</v>
+        <v>536176</v>
       </c>
     </row>
     <row r="55">
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6504</v>
+        <v>9</v>
       </c>
       <c r="D55" t="n">
-        <v>719</v>
+        <v>519118</v>
       </c>
     </row>
     <row r="56">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6046</v>
+        <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>792</v>
+        <v>599544</v>
       </c>
     </row>
     <row r="57">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8346</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>746</v>
+        <v>568452</v>
       </c>
     </row>
     <row r="58">
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>10820</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>758</v>
+        <v>546518</v>
       </c>
     </row>
     <row r="59">
@@ -1378,10 +1378,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6732</v>
+        <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>754</v>
+        <v>564746</v>
       </c>
     </row>
     <row r="60">
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4347</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>719</v>
+        <v>522713</v>
       </c>
     </row>
     <row r="61">
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4476</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>796</v>
+        <v>593816</v>
       </c>
     </row>
   </sheetData>
@@ -1467,11 +1467,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8236</v>
+        <v>11</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>24,0012,007,0023,0020,0017,008,0021,0020,0022,0015,0024,0019,0016,0015,0020,0017,0020,0017,007,0015,0016,0013,0017,0012,0012,0015,0029,0022,0015,008,00241,00251,00242,00148,00277,00289,00238,00124,00212,00228,00100,00161,00267,00248,00160,00170,00311,00261,00185,00199,00228,00147,00210,00244,00164,00167,0053,00192,00131,00116,00105,00325,00335,00332,00310,00339,00316,00322,00204,00299,00322,00102,00329,00279,00215,00275,00218,00291,00252,00173,00233,00209,00237,00330,00261,00242,00285,00184,00206,00244,00202,00212,00261,00160,00251,00214,00250,00209,00268,00234,00238,00252,00180,00171,00247,00149,00153,00245,00221,00161,00150,00234,00235,00214,00158,00210,00189,00216,00230,00125,00220,00234,00183,00194,00171,00195,00122,00141,00178,00184,00203,0091,00189,00143,00178,00168,00125,00147,00188,00208,00203,00121,00132,00195,00182,00148,00140,00124,00163,00199,00145,00173,00150,00189,00601,00440,00649,00570,00270,00422,00598,00397,00440,00431,00438,00451,00496,00469,00459,00516,00526,00571,00313,00533,00674,00658,00482,00484,00597,00665,00621,00608,00557,00615,00616,00126,00182,00207,0087,00173,00214,00131,00178,00134,00121,00147,00114,00111,00126,00153,00227,0080,00171,00215,00184,00185,00116,00209,00174,00148,0046,00248,00118,00190,00191,00172,006,0012,0020,007,0010,003,0012,0012,007,008,008,002,0010,0011,009,0010,007,006,009,0019,007,009,005,006,006,008,001,0016,0015,003,007,00229,00131,00247,00236,00219,00258,00186,00218,00286,00215,00229,00294,00276,00218,00171,0077,00224,00196,00234,00184,00203,00283,00203,00268,00277,00245,00161,00299,00152,00154,00247,001,001,001,001,001,001,001190,001298,001461,001184,001130,001504,002453,001168,001183,001084,001102,001029,001123,001220,001286,001067,001218,001042,001602,001002,001144,001202,001036,001154,001524,001111,001875,001355,001135,001444,001235,0016,005,0018,0018,0013,0012,0014,0016,0012,0019,0010,009,007,0018,009,0022,0014,009,0012,0026,008,0013,0014,004,0017,0018,0010,0016,009,0019,0010,004,001,005,002,005,001,002,004,007,003,002,007,005,004,002,003,004,004,001,003,005,001,002,001,002,003,001,0034,0019,0017,0015,0019,0017,0014,0017,0018,0023,0016,0014,0017,0022,0012,0015,0020,0020,0016,0023,0017,009,0010,0010,0019,0010,0011,0018,0011,0019,0017,00169,00220,00232,00256,00218,0046,00142,00214,00196,00146,00222,00223,00210,00127,00194,00149,00274,00218,00255,00126,00271,00250,00200,00222,00252,00234,00164,00153,00229,00267,00154,00302,00357,00377,00396,00344,00322,00318,00320,00222,00338,00112,00405,00312,00227,00276,00220,00327,00275,00355,00271,00351,00275,00350,00209,00261,00313,00372,00326,00298,00332,00234,00304,00259,00227,00233,00263,00305,00235,00258,00274,00263,00266,00262,00270,00258,00306,00261,00306,00303,00306,00234,00268,00260,00255,00161,00207,00128,00223,00164,00233,00281,00272,00246,00246,00232,00218,00285,00154,00211,00230,00193,00242,00232,00200,00255,00221,00201,00264,00226,00191,00185,00295,00193,00159,00248,00177,00237,00217,00102,00271,00225,00291,00268,00730,00679,00673,00662,00698,00710,00409,00739,00499,00567,00586,00581,00474,00533,00510,00586,00712,00449,00764,00736,00687,00484,00335,00821,00627,00521,00595,00706,00664,00713,00595,00104,00146,00164,00149,00113,00109,00156,00181,00174,00164,00102,00164,00201,0053,00120,00152,00166,00179,00203,00149,00202,00137,00135,00157,00203,00128,00134,00146,00191,00154,00133,0032,009,007,007,0028,006,0021,003,0012,0018,0010,0010,003,004,008,005,007,008,0010,006,008,008,007,005,0013,0010,004,007,003,0028,00245,00201,00204,00180,00268,00214,00169,00241,00144,00211,00143,00226,00145,00235,00180,00268,0094,00225,00279,00262,00227,00175,00228,00186,00212,00132,00226,00195,00265,00164,00240,002,001,001,001,001,001,001285,001071,001310,001282,001070,001316,001290,001533,001263,001180,001718,001467,001155,002616,001397,001305,001370,002131,001231,001201,001186,001364,001447,001766,00994,001685,001135,001146,001322,001220,003308,005,0016,0018,0015,008,0019,0012,0019,0015,0016,0023,0021,009,0016,0018,0011,0014,0018,0018,0018,0012,0018,0015,0013,0013,0018,0015,0015,0016,0014,0014,005,002,002,003,006,002,007,003,005,004,008,004,004,002,005,004,005,006,002,001,003,003,002,001,003,002,003,007,00</t>
         </is>
       </c>
     </row>
@@ -1485,11 +1485,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9528</v>
+        <v>14</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>20,0017,0022,0013,0016,0020,0018,0021,0027,0019,0014,004,0022,0022,0017,0015,0012,0010,0015,0015,008,0023,0012,0014,0013,0022,0015,0022,00200,00199,00110,00169,00185,00231,00258,00298,0099,00182,00115,00314,00309,00205,00119,00310,00286,00145,00142,00283,00282,00350,00134,00269,00260,00239,00270,00251,00155,00298,00211,00402,00325,00204,00280,00160,00195,00276,00261,00351,00205,00312,00345,00293,00330,00237,00330,00323,00329,00377,00257,00305,00318,00347,00275,00218,00175,00252,00211,00239,00181,00276,00252,00139,00230,00277,00188,00328,00267,00281,00157,00238,00282,00250,00228,00186,00213,00178,00213,00212,00224,00235,00261,00225,00166,00200,00161,00175,00182,00143,00145,0097,00185,00183,00147,00207,00152,00179,00188,00209,00193,00206,00176,00218,00162,00160,00211,00193,00191,00266,00194,00183,00449,00433,00531,00659,00573,00586,00651,00682,00566,00735,00723,00620,00661,00667,00628,00551,00731,00910,00386,00643,00619,00593,00653,00663,00700,00507,00642,00652,00177,00239,00134,00202,00187,00240,00251,00229,00247,00246,00225,00254,00225,00256,00302,00174,00229,00232,00206,00230,00213,00267,00197,00339,00169,00129,00268,00232,008,0017,0010,006,007,008,0013,0018,0010,0013,008,0017,007,007,0011,009,0014,0013,0013,007,0012,004,006,0011,007,006,0013,006,00241,00336,00294,00286,00262,00325,00223,00202,00319,00319,00323,00323,00325,00292,00147,00280,00318,00234,00346,00400,00339,00313,00379,00462,00309,00303,00279,00355,001,001,001,001,001,001,00968,00879,001166,001015,00509,00930,001074,001286,001357,001410,00985,001069,001037,001147,001808,00854,00938,00940,00940,001024,001416,001184,00851,00952,001254,001057,002009,001009,0012,0015,0013,008,0014,0013,0016,0013,009,006,0013,0029,008,0014,0029,0018,0016,0020,0017,0011,0010,0018,0013,009,0024,0014,0014,0013,001,005,004,004,001,002,001,003,003,006,001,003,006,003,002,001,005,003,004,004,003,002,003,002,0018,0029,0021,0012,0022,0013,0018,0020,0019,0020,0012,0010,0023,0010,0028,007,0012,0022,0022,0016,0011,009,0015,0016,0010,0014,0022,0011,00221,00208,00139,00257,00242,00171,00123,00210,00163,00231,00162,00253,00163,00153,00155,00165,00230,00153,00226,00235,00215,00237,00223,00227,00219,00320,00250,00266,00342,00324,00363,00363,00379,00300,00360,00475,00292,00272,00433,00372,00300,00364,00361,00393,00272,00253,00249,00388,00315,00281,00246,00369,00324,00411,00393,00410,00280,00284,00268,00270,00376,00328,00201,00221,00267,00308,00310,00302,00342,00309,00272,00266,00291,00301,00331,00300,00263,00255,00317,00370,00336,00338,00334,00301,00262,00199,00339,00228,00293,00189,00283,00296,00199,00256,00274,00330,00205,00217,00272,00249,00259,00214,00263,00298,00214,00167,00220,00288,00253,00214,00214,00264,00604,00630,00800,00567,00823,00629,00770,00847,00528,00679,00650,00662,00918,00548,00702,00643,00625,00757,00768,00629,00767,00525,00575,00780,00690,00568,00683,00719,00169,00191,00184,00136,00210,00174,00130,00139,00208,00207,00142,00144,00125,00171,00165,00154,00168,00177,00157,00204,00128,00124,00150,00201,00184,00204,00146,00162,0012,009,0011,009,009,0023,0011,0012,004,0011,008,0011,0010,0014,0015,0016,0016,007,0018,0010,0011,0017,009,0011,008,006,0014,008,00155,00247,00145,00163,00202,00167,00267,00235,00200,00154,00261,00218,00177,00118,00202,00276,00251,00207,00154,00267,00254,00134,00216,00199,00207,00168,00222,00196,001,001,001,001,001,001,001,001,001,001,00917,001087,001112,001034,001214,001274,001119,001199,001140,001728,001027,001273,001227,00947,001028,00768,00944,00951,001218,001016,001616,001041,00808,001201,001064,001089,001810,001471,0018,0014,0015,0024,0013,0018,0022,0016,0010,0013,009,0012,0021,0017,0014,0014,0021,0013,009,0012,0018,0021,0012,0027,0027,0020,0014,0017,002,005,002,005,005,005,001,004,002,003,004,004,004,004,007,005,001,004,003,004,005,004,004,004,001,002,00</t>
         </is>
       </c>
     </row>
@@ -1503,11 +1503,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8307</v>
+        <v>11</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17,00</t>
+          <t>17,0021,0013,0020,0013,0015,0013,0017,0011,0018,0022,0021,0025,0021,0021,0029,0013,0018,0025,0020,0019,0018,0019,0021,0022,0018,0016,0023,0023,0023,0020,00303,00292,00268,00194,00248,00290,00299,00172,00232,00275,00293,00259,00261,00256,00282,00283,00299,00276,00225,00190,00268,00288,00257,00237,00122,00115,00134,00217,0093,00229,00185,00397,00332,00353,00308,00381,00353,00358,00341,00350,00298,00321,00355,00245,00338,00268,00346,00291,00245,00369,00287,00206,00303,00306,00264,00292,00224,00263,00185,00332,00344,00224,00203,00271,00210,00251,00247,00234,00231,00267,00183,00191,00265,00258,00272,00269,00272,00237,00265,00220,00264,00286,00232,00225,00217,00178,00241,00300,00223,00214,00239,00280,00273,00208,00155,00219,00164,00220,00163,00209,00152,00241,00199,00201,00168,00198,00193,00181,00197,00155,00254,00195,00178,00185,00184,00156,00204,00177,00177,00170,00187,00215,00208,00177,00683,00653,00702,00679,00699,00620,00605,00651,00491,00519,00655,00626,00500,00521,00658,00679,00668,00637,00653,00624,00682,00732,00605,00474,00656,00634,00472,00555,00748,00655,00632,00277,00246,00249,00205,00227,00190,00221,00218,00236,00247,00240,00254,00212,00243,00162,00205,00232,00184,00194,00217,00179,00201,00237,00230,00212,00163,00212,00211,00254,00233,00162,007,008,0013,0019,009,0010,009,0025,0013,008,007,0017,008,0010,0012,0017,0014,009,004,0010,0018,006,0018,0021,0015,007,001,0012,001,0014,0012,00352,00249,00334,00294,00308,00339,00332,00328,00287,00304,00332,00367,00297,00207,00301,00262,00324,00295,00246,00373,00294,00331,00325,00289,00270,00329,00311,00377,00313,00274,00282,001,002,001,001,001,001,002,001,001,001,001,001,001053,00945,00935,00963,00971,00961,001291,001115,001317,001408,00879,00871,00979,001003,001246,00920,00982,00874,00982,00885,00892,00967,00965,001045,00961,00900,001286,001071,00815,00975,00962,0016,0014,0011,0021,0010,0013,0012,0016,0012,0019,0012,0013,0012,0013,0011,0015,0011,0021,0018,0011,0013,0025,008,0017,0011,008,0010,0019,0020,0010,0013,001,005,001,003,002,002,001,003,001,006,002,009,001,004,005,005,001,004,001,006,004,008,007,002,008,002,003,003,002,006,0023,0022,0017,0011,0014,0023,0019,0023,0010,0013,0011,0018,0021,0025,0018,0020,0016,0021,0014,0023,0017,0027,0016,0013,0014,0021,0017,0027,0018,0014,0019,00276,00228,00195,00163,00277,00254,00243,00155,00218,00251,00264,00221,00236,00277,00248,00275,00146,00271,00137,00286,00126,00293,00281,00181,00225,00169,00234,00232,00254,00219,00197,00360,00342,00362,00368,00396,00416,00316,00223,00321,00325,00211,00308,00333,00389,00404,00289,00258,00297,00338,00302,00330,00250,00335,00387,00316,00345,00298,00322,00317,00304,00365,00199,00219,00283,00252,00293,00293,00271,00316,00356,00367,00265,00327,00211,00352,00316,00226,00274,00261,00246,00294,00218,00279,00267,00208,00280,00218,00327,00229,00262,00273,00227,00273,00240,00266,00295,00257,00279,00257,00291,00265,00304,00268,00218,00280,00328,00253,00200,00302,00246,00205,00233,00296,00289,00241,00298,00222,00265,00286,00313,00180,00277,00254,00636,00608,00792,00689,00943,00795,00838,00572,00888,00519,00773,00750,00860,00647,00586,00614,00883,00584,00692,00822,00709,00689,00783,00677,00685,00831,00562,00716,00628,00613,00806,00183,00227,00132,00204,00223,00137,00213,00172,00193,00176,00243,00192,00209,00211,00148,00213,00157,00119,00175,00207,00169,00130,00230,00160,00203,00148,00151,00146,00205,00166,00154,0040,0016,0025,0055,0032,0017,0038,0044,0019,0030,0031,0017,0036,0038,0015,007,0024,0047,0015,0046,0041,0020,0026,0046,0032,0033,0011,0016,0026,0010,005,00276,00253,00285,00234,00215,00218,00223,00182,00290,00241,00301,00223,00306,00157,00182,00223,00235,00180,00201,00203,00221,00254,00299,00281,00234,00209,00222,00279,00217,00262,00226,001,001,002,001,001,001,001024,001189,001057,001130,001113,001102,001050,00986,001210,001156,001191,001106,001126,001247,001310,001039,001247,001023,00852,00970,001012,00882,001201,00998,001037,001067,001021,001009,001045,00843,00866,0014,0013,009,0018,0014,0018,0020,0016,0018,0013,0014,0018,0020,0013,0019,0016,0023,0019,0014,0020,0015,0012,0020,0015,0023,0012,0023,0017,0016,0010,009,002,002,001,004,004,004,003,002,006,004,002,002,002,004,007,004,0015,006,005,005,003,004,006,005,004,005,005,00</t>
         </is>
       </c>
     </row>
@@ -1521,11 +1521,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2926</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>21,0017,0013,0018,0027,0040,0051,0015,0011,0016,0012,0024,0018,0013,0020,0028,0018,0018,0022,0026,0021,0014,0087,0020,009,0013,0014,0023,0025,0015,0079,00112,00139,00236,00261,00234,00286,00178,00302,00289,00173,00279,00179,00287,00303,00255,00253,00325,00313,00132,00224,00317,00315,00255,00229,00289,00129,00127,00203,00125,00347,00372,00261,00236,00345,00344,00302,00199,00296,00405,00365,00206,00338,00354,00176,00277,00237,00299,00196,00322,00232,00289,00203,00323,00165,00266,00228,00243,00193,00365,00244,00206,00199,00238,00271,00184,00201,00220,00225,00224,00209,00217,00193,00255,00167,00259,00267,00279,00236,00169,00219,00251,00263,00212,00291,00161,00294,00221,00341,00284,00120,00151,00170,0095,00147,00123,00177,00171,00173,00153,00186,00166,00144,00146,00145,00131,00253,00177,00179,00214,00145,00159,00211,00194,00181,00193,00176,00202,00181,00133,00609,00528,00528,00628,00660,00473,00386,00524,00680,00591,00652,00685,00649,00602,00633,00555,00861,00583,00666,00566,00351,00619,00702,00612,00455,00656,00431,00630,00391,00662,00155,00143,00189,00215,00130,00167,00185,00193,00140,00193,00236,00237,00171,00119,00153,0091,00188,00170,00190,00211,00108,00137,00182,00192,00212,00139,00183,00215,00161,00130,003,0010,003,0013,008,006,006,005,004,0010,004,005,004,0014,006,003,005,0015,002,006,004,002,008,004,005,001,007,003,002,00139,00345,00207,00272,00133,00250,00243,00221,00243,00162,00255,00198,00226,00191,00233,00231,00194,00155,00188,00207,00198,00149,00236,00235,00222,00219,00261,00227,00190,00260,001,001,001,001,001,002,001,001,001,00962,001082,00941,001159,001227,001279,001037,001067,00983,001634,002181,00998,001238,001108,001360,001024,001057,001351,001723,001125,00887,00969,001431,00974,001534,00873,001402,00771,00918,00783,0018,0012,0017,008,0022,0020,0011,0018,0010,0027,0016,0013,003,0011,0010,0017,0016,0015,0028,009,0017,0015,009,0022,0030,0011,0020,0031,0019,0011,002,003,002,001,007,003,003,003,002,003,002,002,005,008,003,003,001,002,004,001,001,007,003,002,003,005,004,003,0012,0016,0033,0046,0024,0021,0036,0024,0018,0020,0036,0022,0017,0013,0038,0014,0021,0024,0011,0026,0018,0020,0016,009,0041,0028,0024,0027,0024,0026,00128,00201,00227,00160,00149,00100,00267,00170,00289,00138,0097,00232,00220,00250,00101,00146,00177,00281,00108,00232,00249,00211,00225,00257,00277,00250,00225,00277,00113,00260,00366,00372,00232,00246,00336,00142,00287,00239,00280,00324,00244,00257,00324,00376,00204,00290,00342,00266,00290,00328,00344,00308,00302,00395,00330,00299,00195,00362,00363,00373,00250,00312,00242,00207,00263,00317,00185,00267,00276,00229,00237,00120,00269,00276,00246,00223,00299,00314,00186,00207,00213,00217,00293,00254,00154,00240,00274,00303,00247,00228,00180,00220,00230,00292,00253,00225,00249,00187,00251,00221,00248,00185,00246,00265,00250,00221,00156,00291,00289,00159,00247,00305,00196,00202,00221,00192,00237,00152,00213,00190,00511,00566,00401,00883,00434,00696,00487,00707,00591,00702,00584,00789,00504,00689,00702,00585,00730,00662,00591,00434,00645,00610,00550,00515,00600,00659,00759,00600,00621,00551,00213,00141,00185,0090,0088,00107,00140,00141,00143,00222,00124,00135,0093,00143,00159,00154,00115,00138,00103,00123,0093,00133,00126,00188,00158,00148,00145,00191,00106,00136,0015,0018,004,009,009,007,006,0010,004,001,003,006,003,004,002,005,004,005,005,0011,008,007,0012,0011,007,0029,0015,004,008,005,00179,00258,00155,00177,00125,00204,00175,00260,00152,00157,00173,00234,00190,00177,00181,00212,00163,00184,00221,00197,00142,00191,00159,00166,00227,00174,00168,00249,00138,00202,001,001,001,001,001,001,00941,001343,001519,001159,001986,00691,001596,001134,001052,00918,001134,00871,001037,001020,001033,001374,001105,00860,001664,001159,001063,001748,001250,001070,001095,001161,00730,001194,001094,001095,0015,0014,0019,0018,0017,0018,0012,0012,0013,0011,0026,0022,0022,0019,005,0014,0015,0026,0017,0022,0018,0016,0013,0015,0021,0014,0021,0014,0015,0014,001,001,007,001,004,001,002,004,003,001,002,006,002,002,007,004,003,002,004,003,005,007,006,003,004,005,001,006,00</t>
         </is>
       </c>
     </row>
@@ -1539,11 +1539,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4509</v>
+        <v>6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>10,0013,003,0013,0011,0012,0016,0012,0021,0012,0017,0010,0017,0017,0028,0017,0019,0015,0018,0012,0015,0019,0018,0026,0018,0015,0014,0016,0017,0019,0019,00237,00118,00273,00270,00158,00284,00193,00242,00131,00225,00170,00258,00202,00165,00181,00246,00264,00148,00256,00119,00168,00252,00255,00101,00303,00320,00234,00275,00264,00303,00215,00324,00315,00326,00345,00301,00350,00312,00330,00255,00193,00225,00330,00330,00321,00297,00261,00350,00184,00269,00314,00336,00219,00266,00181,00226,00323,00242,00308,00267,00348,00345,00255,00248,00240,00275,00276,00244,00273,00213,00206,00218,00255,00178,00227,00207,00249,00251,00215,00193,00229,00210,00218,00224,00224,00183,00222,00279,00211,00251,00227,00215,00216,00175,00188,00206,00167,00179,00179,00165,00214,00186,00161,00134,00124,00164,00175,00155,00175,00193,00130,00178,00161,00138,00156,00144,00161,00170,00202,00180,00139,00175,00164,00164,00738,00771,00799,00686,00676,00849,00555,00602,00723,00546,00768,00705,00495,00559,00585,00579,00785,00739,00675,00723,00762,00676,00638,00578,00750,00624,00674,00674,00722,00726,00617,00145,00227,00157,00247,00218,00218,00298,00255,00217,00250,00226,00278,00164,00258,00307,00228,00191,00195,00222,00246,00266,00191,00152,00256,00250,00181,00254,00130,00301,00225,00248,005,0016,006,005,008,003,004,0015,008,006,006,001,006,007,004,005,003,007,003,0012,008,0012,009,003,009,0011,004,005,006,004,009,00313,00282,00319,00255,00331,00308,00288,00315,00313,00331,00204,00334,00335,00260,00252,00227,00237,00281,00264,00211,00207,00281,00313,00283,00251,00238,00322,00339,00300,00336,00270,001,001,001,001,001,001,001,001178,00956,001128,001288,001122,00918,00998,001218,00901,001059,00874,001407,00986,001039,00960,00938,001010,001411,001012,00926,00846,00935,00933,00896,00886,00886,00868,00890,00938,00822,00888,0012,0014,0016,009,0013,009,0011,0017,0012,008,006,0015,0015,0014,0013,007,0013,006,0012,0013,008,0015,0010,0013,009,0011,009,0016,0019,009,0011,003,002,002,004,001,002,004,003,002,006,003,002,005,008,005,004,003,004,002,002,006,001,002,005,003,003,006,003,004,004,0016,0025,0016,0013,0022,0016,0010,0012,0011,0022,0016,0016,0018,0018,009,0018,0028,0012,0064,0018,0018,0021,0013,0028,0019,0027,0014,0019,0024,0022,0018,00141,00223,00230,00133,00148,00244,00156,00116,00198,00138,00130,00221,00247,00124,00247,00243,00226,00162,00252,00256,00234,00245,00265,00226,00257,00236,00201,00266,00228,00198,00209,00418,00415,00449,00386,00384,00424,00399,00459,00400,00440,00413,00418,00369,00431,00352,00408,00388,00371,00454,00340,00320,00272,00334,00298,00391,00259,00341,00354,00443,00373,00282,00339,00283,00330,00283,00319,00344,00342,00367,00288,00297,00390,00355,00329,00320,00340,00380,00267,00256,00325,00309,00296,00258,00323,00330,00297,00226,00257,00239,00232,00205,00285,00277,00162,00192,00236,00269,00233,00299,00243,00249,00235,00287,00281,00245,00245,00178,00271,00174,00255,00229,00223,00236,00263,00202,00230,00266,00225,00240,00239,00280,00287,00215,00590,00693,00764,00597,00878,00494,00806,00816,00873,00674,00699,00748,00609,00647,00672,00599,00590,00895,00650,00430,00784,00578,00780,00742,00637,00663,00544,00881,00624,00637,00750,00156,00191,00186,00189,00124,00143,00196,00114,00182,00139,00187,00164,00141,00126,00113,00128,00189,00147,00147,00161,00139,00226,00124,00130,00146,00197,00139,00199,00184,00138,00190,007,009,005,003,005,005,006,0011,006,002,003,008,003,009,006,006,008,0010,005,004,006,006,009,005,006,006,001,005,006,008,005,00215,00231,00242,00134,00196,00183,00222,00169,00223,00170,00210,00198,00212,00234,00221,00247,00175,00191,00218,00160,00232,00211,00175,00211,00204,00198,00218,00202,00201,00150,00215,001,001,001,00971,001626,001011,001224,00943,001317,001033,00905,00994,001056,00912,001213,00996,00987,00775,001029,001216,001027,001087,001093,001027,001059,00783,00969,001094,00937,001141,00997,001160,001042,001218,0011,0017,0013,0015,0016,0013,0011,0016,0015,0013,0020,0021,0013,0016,0013,0015,0015,0013,0011,0015,0013,0013,0014,008,0019,0015,0011,007,0021,0016,0018,003,004,002,007,006,003,006,005,005,001,003,005,005,002,004,005,002,003,006,001,007,003,001,001,006,003,003,004,00</t>
         </is>
       </c>
     </row>
@@ -1557,11 +1557,11 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5855</v>
+        <v>8</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>29,0010,0018,0017,0019,0014,0017,0013,0025,008,0010,0015,0018,0025,0013,0014,0020,0018,0016,0010,0014,0023,0018,0016,0015,0015,0018,0015,0021,0017,00267,00218,00229,00214,00120,00201,00285,00283,00278,00165,00221,00124,00109,00206,00301,00242,00107,00153,00237,00272,00240,00262,00242,00195,00256,00188,00243,00256,00274,00299,00206,00223,00270,00251,00199,00317,00215,00295,00285,00244,00263,00236,00331,00328,00332,00328,00314,00348,00247,00325,00309,00241,00310,00315,00291,00297,00351,00245,00311,00312,00198,00260,00219,00197,00183,00266,00199,00253,00240,00245,00253,00228,00289,00227,00261,00237,00219,00338,00241,00234,00232,00259,00246,00281,00270,00191,00252,00268,00289,00254,00151,00150,00166,00151,00175,00147,00198,00163,00166,00204,00137,00166,00151,00162,00170,00174,00172,00204,00196,00203,00185,00192,00203,00190,00180,00196,00185,00182,00172,00206,00558,00596,00676,00563,00595,00747,00736,00811,00798,00747,00706,00610,00772,00745,00772,00689,00673,00751,00605,00857,00760,00784,00578,00710,00535,00796,00719,00804,00714,00548,00177,00178,00205,00223,00280,00235,00242,00253,00267,00252,00251,00261,00308,00294,00186,00258,00325,00280,00193,00262,00255,00206,00248,00186,00301,00308,00212,00243,00283,00217,005,004,005,006,0013,006,004,009,007,0011,004,007,0011,003,007,007,0010,007,008,009,0011,006,006,007,006,004,007,005,001,00320,00277,00334,00300,00330,00275,00307,00309,00371,00336,00354,00320,00343,00267,00306,00313,00349,00364,00316,00284,00331,00379,00266,00308,00320,00341,00373,00283,00290,00345,002,001,001,001,001,002,002,001,00902,00859,00989,00828,00979,00828,00863,001030,00809,001388,001001,001470,00813,001297,00962,001082,00834,001192,001059,00971,00805,001363,001446,001060,001276,00890,00931,00874,00916,00913,0011,0019,0011,0014,0016,0013,0012,0016,0012,0014,0010,0012,007,0015,0012,0011,0016,0018,0020,0014,0015,003,0013,0014,0020,0015,008,009,0012,0014,004,006,002,003,003,003,003,003,003,001,005,004,005,003,003,006,005,001,007,009,003,005,004,002,006,008,004,003,004,0028,0023,0023,0018,0017,0020,0012,0020,0020,007,0018,0022,0018,0020,0021,0013,0018,0013,0011,0021,0022,0029,0012,0010,0017,0019,0019,0019,0010,0030,00232,00257,00205,00143,00214,00236,00233,00261,00161,00243,00172,00214,00149,00217,00248,00191,00225,00216,00207,00138,00201,00209,00271,00120,00133,00302,00267,00194,00133,00237,00433,00292,00442,00425,00380,00302,00339,00276,00391,00415,00406,00400,00465,00386,00349,00324,00250,00419,00395,00401,00358,00407,00421,00427,00456,00492,00411,00415,00492,00342,00262,00335,00289,00306,00332,00346,00277,00363,00240,00327,00327,00273,00354,00345,00394,00351,00226,00416,00325,00304,00315,00355,00241,00268,00377,00341,00308,00309,00291,00319,00243,00305,00189,00180,00265,00163,00220,00185,00316,00229,00303,00212,00248,00270,00269,00295,00278,00227,00241,00260,00206,00236,00253,00301,00159,00184,00314,00289,00207,00299,00567,00765,00674,00643,00525,00841,00821,00688,00870,00702,00657,00664,00406,00623,00699,00801,00809,00833,00572,00642,00741,00863,00630,00621,00686,00908,00726,00816,00572,00566,00139,00212,00140,00153,00138,00169,00222,00205,00178,00163,00159,00173,00143,00146,00132,00204,00178,00196,00145,00163,00152,00143,00232,00207,00155,00206,00134,00236,00139,00181,004,0010,0012,002,005,0012,005,008,007,009,008,008,001,007,009,006,005,009,006,008,009,0015,005,003,008,003,009,005,006,0011,00153,00243,00215,00209,00207,00237,00264,00190,00191,00205,00174,00234,00193,00201,00200,00235,00161,00213,00245,00164,00170,00264,00191,00143,00153,00236,00207,00206,00265,00270,001,002,001,001,00976,00865,00951,001113,001112,00913,001056,00874,001302,00993,001154,00826,001021,001426,001011,00967,001116,001050,00883,00897,001325,001069,00991,001145,001098,001078,001643,00917,001300,00846,0018,0018,007,0015,0022,0010,0016,0016,0013,0013,0019,0017,0015,0012,0015,0019,0013,0015,008,0010,0015,0018,0011,0013,006,0017,0019,0013,0017,0015,002,004,003,003,002,003,007,003,006,003,007,003,001,005,002,006,001,006,004,006,003,004,002,008,001,004,004,001,003,003,00</t>
         </is>
       </c>
     </row>
@@ -1575,11 +1575,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12056</v>
+        <v>16</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>12,0011,00100,0018,0020,0011,0031,0025,0018,0023,0051,0010,0012,0020,0021,0010,0020,0014,0020,009,0027,0016,0015,0014,0026,0026,0021,0016,0049,0018,0052,00260,00254,00108,00289,00142,00226,00226,00281,00262,00192,00165,00177,00108,00169,00206,00179,00264,00102,00275,00274,00248,00111,00298,00240,00234,00156,00274,00191,00255,00267,00252,00329,00374,00309,00223,00323,00336,00335,00265,00315,00324,00266,00202,00252,00341,00358,00287,00335,00345,00263,00275,00263,00323,00220,00321,00270,00171,00279,00210,00261,00299,00359,00266,00240,00246,00277,00213,00234,00261,00211,00284,00274,00256,00242,00232,00235,00227,00263,00283,00232,00274,00289,00198,00237,00231,00273,00320,00304,00230,00287,00271,00258,00273,00180,00157,00189,00225,00175,00206,00162,00158,00161,00208,00163,00173,00205,00198,00154,00170,00187,00192,00182,00182,00224,00159,00196,00174,00206,00185,00218,00220,00147,00196,00217,00742,00812,00601,00805,00831,00747,00679,00609,00894,00794,00755,00785,00925,00738,00824,00870,00830,00607,00786,00787,00635,00652,00639,00747,00834,00634,00661,00841,00836,00601,00848,00264,00284,00329,00326,00322,00326,00203,00306,00310,00350,00331,00245,00228,00268,00292,00367,00283,00282,00331,00309,00224,00288,00289,00340,00267,00241,00180,00294,00333,00291,00322,009,008,003,005,004,006,005,007,0010,0011,003,006,004,005,005,009,007,009,006,008,007,007,007,006,0011,0012,0011,008,007,0012,004,00440,00298,00355,00467,00421,00325,00387,00447,00389,00356,00415,00354,00348,00311,00362,00435,00293,00405,00351,00367,00368,00345,00382,00300,00414,00322,00343,00347,00294,00363,00375,002,001,001,001,001,001,002,001,001,001237,001246,001279,001309,001178,001644,001419,001158,001223,001521,001139,001253,001074,001407,001395,001169,001074,001074,001700,001101,001098,001036,001346,001193,001376,001408,001195,001216,001263,001442,001220,0016,0024,0017,009,007,0017,0017,0011,009,0015,0015,0015,0017,0011,0014,0014,0018,0010,006,0011,0013,0016,0010,0017,0018,0010,0019,0010,0015,0017,0016,002,003,002,001,003,004,003,004,006,003,001,001,003,002,003,004,001,003,003,004,0011,003,003,003,0012,003,008,004,004,0023,0011,0014,0048,0018,0021,0020,0058,0017,0034,0022,0019,0073,0029,0016,0015,0031,0023,0020,0019,0018,0029,0021,0012,0019,0021,0027,0018,0016,0040,0065,00148,00248,00246,00244,00225,00143,00248,00130,00261,00155,00272,00229,00239,00136,00153,00259,00272,00139,00240,00237,00238,00243,00146,00256,00214,00244,00228,00141,00214,00235,00155,00574,00416,00434,00487,00512,00479,00299,00504,00432,00409,00346,00479,00504,00392,00504,00324,00424,00469,00476,00449,00433,00504,00384,00471,00495,00448,00454,00531,00305,00505,00462,00290,00323,00408,00410,00300,00364,00395,00385,00436,00339,00326,00348,00363,00321,00317,00390,00313,00284,00348,00361,00283,00359,00267,00362,00366,00367,00372,00324,00360,00392,00369,00313,00307,00269,00292,00196,00270,00265,00247,00317,00249,00210,00258,00300,00257,00311,00236,00212,00246,00295,00223,00272,00243,00244,00201,00267,00348,00323,00342,00272,00247,00247,00850,00730,00774,00833,00834,00679,00667,00609,00745,00763,00936,00836,00647,00597,00920,00555,00533,00613,00691,00648,00899,00815,00752,00611,00739,00780,00755,00916,00745,00743,00907,00234,00166,00229,00148,00146,00198,00175,00167,00165,00150,00177,00205,00168,00205,00197,00214,00164,00195,00202,00211,00190,00203,00200,00182,00171,00205,00148,00228,00142,00199,00168,005,006,009,0010,0012,005,005,007,005,0010,0014,0012,008,0015,0010,0010,007,0011,004,0010,008,008,003,0013,005,009,005,006,008,0010,009,00230,00228,00231,00179,00233,00227,00260,00271,00280,00270,00274,00223,00208,00191,00244,00211,00277,00283,00243,00260,00168,00170,00250,00221,00231,00176,00263,00185,00221,00274,00152,001,001,001195,001552,001391,001382,001494,001373,001356,001616,001179,001489,001272,001320,001291,001162,001118,001505,001442,001150,001370,001461,001306,001135,001424,001305,001252,001388,001587,001140,001287,001349,001284,0019,0012,0012,0016,0017,0010,0021,0023,0013,0020,0010,0014,0019,0015,0019,0021,0014,0011,0015,007,0020,0010,0010,0015,0014,0011,0017,0015,0022,0020,007,001,003,004,002,002,005,003,002,001,004,002,003,003,001,006,007,0010,003,004,002,004,0021,006,002,008,002,002,003,002,004,002,00</t>
         </is>
       </c>
     </row>
@@ -1593,11 +1593,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11316</v>
+        <v>15</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>10,0025,0021,0017,0016,0018,0010,0019,0018,0012,0022,0019,0017,0017,0017,0022,0012,0015,0015,0017,0014,0016,0022,0017,0025,0018,0030,0016,0019,0016,0022,00313,00262,00310,00267,00262,00273,00280,00270,00185,00316,00247,00201,0095,00276,00264,00262,00114,00243,00113,00191,00269,00168,00300,00270,00291,00162,00216,00110,00176,00228,00171,00256,00261,00292,00262,00322,00339,00389,00296,00380,00367,00273,00322,00336,00317,00384,00332,00334,00337,00206,00345,00367,00336,00218,00269,00352,00357,00225,00256,00216,00373,00298,00301,00331,00297,00253,00198,00277,00340,00307,00214,00230,00303,00300,00264,00322,00290,00290,00208,00347,00262,00204,00284,00276,00225,00255,00290,00264,00325,00244,00251,00231,00272,00173,00165,00174,00152,00200,00181,00177,00186,00239,00203,00211,00213,00223,00194,00131,00178,00215,00211,00216,00208,00235,00146,00181,00214,00164,00141,00206,00209,00192,00206,00197,00594,00586,00620,00714,00833,00808,00586,00746,00816,00718,00834,00583,00709,00737,00619,00575,00821,00802,00818,00739,00831,00759,00809,00771,00733,00807,00795,00729,00803,00820,00583,00232,00155,00227,00248,00218,00245,00159,00289,00281,00317,00303,00197,00239,00271,00343,00230,00306,00213,00289,00299,00282,00263,00257,00186,00295,00271,00264,00297,00252,00199,00179,0013,004,005,004,0010,0010,005,0011,002,008,006,003,005,0011,006,005,008,006,005,004,007,006,006,004,007,008,008,0010,006,002,009,00336,00361,00222,00212,00337,00438,00315,00294,00371,00239,00317,00444,00375,00344,00394,00380,00371,00326,00314,00286,00394,00295,00302,00399,00352,00380,00380,00362,00383,00367,00403,002,001,001,001,001,001,001,00813,00902,001127,00968,00935,00981,001361,00941,00969,001218,00957,00886,00996,001416,00991,001038,001041,00895,001497,001117,00908,001013,00979,00878,00896,00958,001017,001315,00983,00964,001411,0013,0010,008,0011,0011,0012,0011,0012,0018,007,0012,0014,009,0010,0010,0015,0017,0022,003,0014,0012,0017,009,0020,0013,0016,0011,0019,0011,0012,007,009,005,005,008,002,002,005,006,002,005,004,005,005,003,003,008,003,006,002,003,007,003,003,006,002,005,005,001,001,0021,0015,0019,0037,0022,0018,0010,0016,0016,0023,0010,0015,0019,0020,0018,0019,0023,009,0015,0032,0013,0015,0027,0015,0014,0022,0016,0032,0026,0015,0015,00208,00244,00113,00225,00147,00225,00263,00141,00301,00152,00265,00227,00150,00246,00284,00237,00217,00222,00271,00111,00140,00267,00128,00236,00274,00236,00270,00297,00276,00271,00229,00365,00254,00353,00296,00279,00344,00393,00413,00357,00411,00422,00452,00453,00442,00332,00275,00465,00458,00369,00426,00394,00470,00411,00447,00408,00405,00412,00367,00423,00400,00443,00262,00327,00315,00292,00237,00349,00372,00337,00320,00346,00343,00333,00254,00331,00336,00344,00391,00293,00367,00269,00288,00254,00374,00328,00369,00363,00341,00333,00375,00378,00299,00283,00248,00274,00196,00190,00267,00259,00285,00285,00283,00277,00200,00268,00298,00288,00277,00243,00221,00316,00262,00239,00279,00243,00186,00284,00230,00263,00261,00257,00277,00316,00658,00553,00655,00725,00732,00857,00680,00579,00861,00694,00641,00777,00851,00715,00797,00852,00549,00888,00607,00765,00681,00815,00838,00939,00685,00905,00862,00676,00620,00654,00787,00223,00216,00191,00216,00189,00207,00164,00209,00173,00253,00174,00207,00196,00233,00219,00245,00182,00156,00231,00175,00163,00176,00226,00226,00211,00203,00163,00152,00240,00189,00178,005,004,0010,0011,0011,006,006,005,009,005,003,0012,009,006,003,0012,004,0010,005,007,0013,007,007,009,004,003,0010,0012,007,007,006,00238,00204,00259,00255,00298,00215,00233,00198,00203,00340,00312,00270,00200,00237,00238,00238,00177,00254,00215,00213,00203,00245,00298,00253,00207,00258,00245,00202,00248,00317,00301,001,001,003,001,001,00964,00888,001259,001240,00981,001002,001103,00936,00955,001159,001033,001444,001114,001113,00942,00946,001134,001135,00978,00861,00982,001044,00983,001019,001163,001215,001104,001009,001473,00874,00849,0011,0019,0012,0012,0015,009,0011,0013,0018,0022,0010,0015,0020,0018,0011,0013,0015,0012,009,0011,0013,0014,0014,0011,009,0014,0012,0012,0015,008,0011,0010,003,003,001,002,005,001,004,008,006,003,007,004,001,005,004,006,006,003,006,001,003,004,005,0011,006,001,001,005,003,001,00</t>
         </is>
       </c>
     </row>
@@ -1611,11 +1611,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7250</v>
+        <v>10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>9,0016,0014,0016,0028,0037,0023,0010,0018,0022,0019,0023,0031,0011,0014,0026,0045,0021,0025,0029,0018,0020,0057,0018,0019,0021,0030,0021,0022,0015,00312,00267,00274,00272,00113,00192,00269,00254,00247,00248,00201,00255,00257,00187,00267,00186,00117,00185,00251,00247,00111,00170,00227,00281,00201,00203,00186,00177,00302,00104,00322,00341,00283,00329,00353,00417,00329,00366,00304,00322,00365,00330,00259,00333,00355,00293,00303,00411,00362,00375,00298,00268,00300,00240,00390,00268,00229,00255,00292,00274,00255,00299,00284,00275,00220,00263,00347,00314,00195,00309,00279,00285,00251,00312,00289,00271,00263,00269,00248,00280,00289,00233,00314,00256,00292,00226,00254,00207,00337,00227,00190,00193,00204,00157,00216,00184,00197,00206,00163,00220,00171,00194,00218,00220,00225,00215,00212,00204,00200,00216,00188,00168,00204,00245,00185,00197,00230,00211,00149,00169,00829,00704,00592,00763,00734,00756,00784,00606,00752,00554,00745,00751,00847,00550,00643,00828,00718,00847,00745,00566,00519,00866,00631,00782,00716,00836,00737,00735,00585,00588,00265,00264,00270,00237,00201,00241,00258,00178,00253,00299,00182,00261,00190,00261,00299,00244,00260,00255,00168,00195,00236,00261,00243,00174,00263,00228,00253,00276,00162,00273,0014,0011,003,001,008,009,007,008,008,004,0012,003,0011,0012,009,007,0012,0010,007,004,006,009,009,004,006,0013,004,0018,004,004,00388,00368,00355,00383,00354,00250,00328,00336,00373,00295,00389,00334,00353,00372,00325,00396,00329,00348,00274,00270,00395,00259,00368,00408,00262,00391,00285,00355,00275,00337,002,002,001,001,00956,00953,00916,001201,00876,001169,001181,00892,00912,00936,00993,00908,00924,00927,001119,00963,00811,00934,00876,001274,001073,00901,00892,001522,001442,00865,00874,001116,001589,00904,0010,0018,0014,009,0014,005,0016,006,0010,009,0016,0010,0016,008,0013,0014,0011,0017,0011,0019,008,0014,0018,0010,0014,0020,006,0012,0013,0010,001,009,005,001,005,002,002,002,001,008,004,009,001,004,005,002,006,003,002,004,003,001,002,004,003,003,003,003,0011,0014,0016,0019,0017,0020,0037,0021,0024,0031,0026,0016,0021,0029,0020,0024,0017,0014,0019,0023,0025,0048,0035,0022,0015,0015,0023,0032,0016,0022,0021,00232,00183,00241,00248,00225,00109,00167,00266,00260,00235,00207,00254,00251,00134,00221,00258,00232,00269,00232,00260,00144,00133,00122,00213,00256,00263,00179,00148,00133,00135,00409,00402,00284,00465,00334,00344,00421,00482,00330,00365,00426,00447,00426,00423,00307,00408,00370,00289,00374,00354,00447,00364,00233,00269,00432,00405,00280,00331,00441,00412,00284,00329,00336,00269,00383,00305,00406,00280,00383,00321,00246,00306,00362,00317,00229,00379,00387,00407,00356,00376,00343,00317,00349,00257,00337,00365,00324,00287,00299,00275,00230,00233,00247,00240,00292,00275,00199,00306,00281,00240,00314,00316,00291,00187,00186,00202,00214,00245,00221,00243,00317,00276,00207,00251,00164,00298,00296,00307,00271,00286,00811,00787,00672,00809,00659,00776,00649,00696,00863,00824,00552,00675,00585,00803,00685,00948,00684,00481,00514,00594,00752,00609,00647,00638,00862,00878,00685,00623,00823,00839,00172,00183,00169,00167,00183,00186,00226,00218,00180,00138,00152,00176,00230,00226,00171,00242,00232,00145,00147,00213,00224,00168,00149,00246,00160,00133,00203,00206,00225,00205,004,009,006,007,0012,0011,0013,009,009,007,006,0014,005,007,005,005,004,004,008,004,006,0011,0013,0010,005,004,005,0011,006,00245,00274,00283,00266,00213,00302,00300,00278,00255,00226,00266,00293,00305,00228,00294,00234,00319,00238,00281,00227,00323,00234,00336,00280,00277,00230,00239,00262,00287,00243,001,001,001007,001026,001321,00850,001029,00925,00972,001476,001109,001053,001032,00817,00860,001488,001094,00749,001153,001103,001050,00989,00953,00971,001039,00952,001009,001850,00960,001032,00867,00901,0011,0015,0014,009,0015,0016,0011,0017,0021,0010,0015,0013,0012,0011,008,0012,0013,0011,0021,0014,0016,0024,0010,0014,0014,0016,005,006,0016,0014,006,0010,006,004,002,001,006,001,004,001,006,006,003,002,002,004,003,002,005,008,004,006,003,001,004,003,003,006,009,00</t>
         </is>
       </c>
     </row>
@@ -1629,11 +1629,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15866</v>
+        <v>21</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>15,0023,0022,0015,0021,0021,0016,0032,0012,0011,0023,0033,0015,0017,0018,0019,0019,0027,0011,0014,0015,0026,0035,0020,0011,0019,0025,0015,0011,0010,0017,00207,00252,00245,00281,00201,00288,00269,00212,00181,00271,00161,00134,00168,00259,00113,00261,00311,0095,00269,00192,00177,00227,00236,00236,00248,00134,00280,00288,00204,00126,00264,00215,00297,00310,00251,00252,00386,00255,00207,00325,00357,00254,00298,00335,00341,00197,00251,00283,00278,00280,00318,00277,00204,00345,00301,00366,00327,00349,00308,00338,00312,00370,00282,00289,00330,00221,00301,00206,00350,00231,00273,00245,00306,00253,00269,00204,00211,00247,00236,00252,00231,00268,00251,00212,00281,00250,00300,00245,00159,00239,00252,00244,00282,00170,00195,00221,00229,00159,00201,00199,00212,00176,00179,00153,00206,00218,00156,00231,00218,00148,00183,00143,00182,00159,00187,00148,00187,00232,00218,00171,00201,00163,00151,00224,00571,00563,00533,00691,00696,00573,00515,00704,00536,00750,00662,00718,00719,00829,00613,00695,00706,00780,00660,00514,00708,00779,00766,00624,00556,00753,00833,00588,00748,00678,00698,00215,00262,00259,00354,00304,00300,00308,00231,00260,00228,00291,00204,00253,00188,00277,00195,00189,00267,00313,00298,00190,00262,00278,00289,00185,00208,00205,00247,00274,00197,00322,006,0014,0011,009,008,006,0014,007,0015,0011,004,0014,007,004,008,0012,0019,007,004,004,008,0011,009,008,0014,0015,003,0014,0012,006,00246,00308,00286,00298,00326,00358,00274,00394,00328,00316,00273,00297,00364,00220,00309,00361,00311,00288,00306,00363,00341,00269,00470,00443,00355,00350,00341,00391,00369,00275,00390,001,001,001,003,001,001,001,001,00872,00836,00893,00958,00938,001039,001060,00964,00961,00854,00895,00836,001542,001025,001545,001029,001255,001012,00779,001322,00861,001035,001603,00902,001197,00865,00950,00837,00883,00893,00876,0012,0017,0014,007,0012,0012,0012,0018,0014,0017,0019,0025,007,002,0016,0010,0017,0010,0017,0013,0011,0022,0014,0013,0011,0012,0024,0012,0030,0013,009,002,0010,0011,004,002,005,003,003,003,001,004,005,003,003,002,001,001,003,001,002,005,003,002,004,001,006,006,0010,004,003,0016,0017,0025,0021,0010,0022,0032,0013,0023,0021,0011,0019,0018,0011,0018,0017,0024,0014,0020,0013,0012,0029,0022,0024,0010,0017,0011,0027,0015,008,0019,00256,00254,00290,00268,00138,00261,00258,00114,00206,00236,00220,00214,00217,00229,00189,00166,00252,00244,00154,00246,00249,00247,00203,00148,00232,00139,00151,00182,00161,00123,00214,00421,00432,00383,00237,00256,00404,00388,00352,00429,00407,00374,00384,00411,00387,00396,00445,00412,00297,00358,00417,00364,00474,00446,00308,00427,00363,00299,00351,00490,00452,00241,00344,00326,00299,00335,00298,00339,00371,00349,00370,00305,00269,00322,00347,00236,00292,00302,00293,00207,00323,00356,00336,00351,00343,00248,00341,00289,00377,00278,00359,00255,00316,00228,00196,00331,00193,00282,00246,00264,00231,00213,00284,00217,00272,00219,00285,00259,00250,00245,00297,00246,00335,00223,00245,00209,00189,00193,00270,00280,00293,00282,00301,00265,00968,00555,00553,00654,00708,00895,00666,00741,00672,00744,00573,00892,00915,00923,00809,00869,00972,00648,00755,00626,00734,00846,00726,00986,00614,00646,00617,00750,00670,00731,00577,00256,00215,00186,00186,00197,00148,00164,00186,00270,00157,00231,00150,00213,00167,00247,00250,00204,00161,00276,00184,00220,00209,00228,00169,00189,00225,00203,00173,00216,00166,00181,0011,0013,005,006,004,005,009,0012,004,004,007,004,0015,005,003,006,0012,007,003,006,005,007,009,008,0010,004,004,0011,0010,0010,009,00165,00319,00285,00147,00168,00241,00177,00217,00271,00270,00178,00215,00306,00223,00215,00336,00209,00224,00280,00179,00273,00267,00208,00259,00210,00284,00286,00204,00221,00314,00171,002,001,001,002,001,002,001,00936,001150,00913,001038,001363,00985,001355,00943,00927,001077,001060,00774,00869,00948,00974,00940,001865,00869,001180,00930,00980,00902,001452,001006,00908,00805,00871,00848,00870,001072,001013,006,0018,008,0025,0028,0012,0014,0016,0016,007,0016,0015,0016,0012,0018,0013,0011,008,0011,0012,0020,0021,0014,0012,0013,0019,006,0011,0028,0022,008,0012,006,003,002,002,001,006,003,004,005,008,003,003,001,002,005,004,004,007,003,003,003,008,005,002,004,004,005,003,00</t>
         </is>
       </c>
     </row>
@@ -1647,11 +1647,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13043</v>
+        <v>18</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>16,0013,0010,0013,0012,0019,0023,0019,0024,0020,0017,0026,0019,0014,0014,0034,0023,0021,0030,009,0027,0015,0014,0012,008,009,0011,008,0016,0013,00306,00118,00285,00327,00278,00253,00219,00309,00273,00177,00288,00298,00250,00206,00231,00263,00220,00264,00283,00265,00135,00273,00254,00198,00119,00151,00184,0098,00296,00216,00320,00333,00310,00141,00328,00251,00275,00289,00359,00331,00280,00250,00250,00290,00263,00298,00361,00272,00250,00223,00179,00309,00251,00331,00254,00183,00267,00166,00317,00250,00302,00171,00243,00258,00235,00271,00305,00246,00202,00179,00268,00245,00210,00211,00201,00225,00244,00258,00230,00226,00193,00273,00253,00282,00229,00249,00258,00178,00219,00257,00195,00215,00154,00156,00185,00204,00198,00220,00180,00188,00212,00198,00183,00205,00175,00154,00145,00202,00222,00139,00193,00210,00206,00163,00230,00151,00230,00192,00240,00178,00662,00726,00639,00713,00640,00784,00774,00756,00663,00640,00720,00712,00504,00536,00740,00581,00720,00708,00610,00680,00663,00655,00527,00577,00723,00531,00718,00685,00471,00521,00190,00323,00267,00218,00280,00303,00283,00340,00237,00240,00363,00245,00305,00218,00246,00256,00195,00180,00237,00318,00270,00236,00320,00251,00286,00183,00258,00263,00176,00296,0010,0014,0013,009,0013,008,0013,004,0013,0010,003,006,0021,0021,008,008,009,0013,006,0015,007,006,005,009,0010,0010,008,007,006,0017,00347,00332,00349,00330,00435,00272,00309,00256,00300,00367,00439,00440,00390,00245,00302,00379,00401,00271,00305,00352,00417,00448,00306,00394,00263,00415,00389,00363,00324,00411,001,001,001,001,001,001,001,001133,00956,001186,00852,001284,00780,00913,001283,00977,001385,00898,00883,001017,00928,001059,00898,001150,00955,00861,001098,00936,00955,00878,00888,001025,00915,00980,001156,001200,00899,0010,005,0017,0012,0011,0011,0016,0012,0015,0014,0011,0013,0014,0011,009,0015,0012,0011,0021,0010,0011,009,0011,0018,0013,0020,0013,004,0015,0011,006,002,002,002,005,004,003,004,001,004,007,001,004,002,005,002,003,001,001,003,001,002,002,001,001,004,004,002,008,008,0012,0018,0016,0013,0019,0019,0016,0023,0015,0018,0019,0025,0012,0022,0017,0018,0015,0015,0017,0020,0031,0026,0011,0012,0020,0016,0028,0016,0011,00258,00136,00240,00138,00130,00118,00232,00255,00155,00173,00224,00228,00222,00137,00231,00234,00246,00175,00208,00137,00193,00213,00216,00206,00150,00194,00209,00239,00151,00197,00360,00255,00409,00337,00397,00392,00261,00366,00367,00398,00385,00354,00455,00348,00294,00411,00254,00419,00409,00401,00397,00364,00398,00407,00398,00369,00423,00264,00363,00407,00293,00351,00343,00304,00305,00363,00341,00363,00288,00334,00285,00342,00289,00316,00334,00377,00357,00295,00286,00308,00327,00276,00291,00269,00349,00246,00207,00301,00209,00249,00255,00215,00304,00270,00230,00176,00300,00310,00233,00297,00246,00202,00231,00216,00295,00246,00299,00234,00195,00164,00277,00289,00192,00288,00289,00293,00152,00205,00223,00185,00829,00693,00884,00604,00777,00964,00536,00801,00755,00694,00852,00811,00917,00946,00554,00641,00629,00781,00587,00632,00602,00601,00579,00697,00712,00784,00619,00909,00746,00898,00185,00222,00190,00179,00184,00185,00148,00167,00156,00244,00197,00191,00177,00143,00224,00201,00219,00159,00169,00182,00137,00215,00178,00165,00233,00158,00171,00247,00143,00128,006,007,006,009,006,004,008,007,005,007,009,008,009,0010,008,0014,008,007,0011,006,006,007,006,003,0010,004,007,006,004,0010,00263,00332,00250,00178,00206,00205,00248,00249,00175,00164,00285,00272,00187,00145,00256,00220,00196,00242,00240,00191,00174,00249,00283,00260,00269,00239,00184,00268,00299,00228,001,001,00783,001100,00847,001087,001022,00970,001166,001291,00982,001018,001179,00985,001272,00924,001023,00907,001069,001203,00767,00827,00898,00933,001075,001242,00952,00992,001135,00956,00971,00921,0010,0014,0018,0014,0010,009,007,0010,006,0011,0012,009,006,0011,0012,008,006,006,0010,009,0010,0013,0016,0013,009,008,0014,0015,008,0015,002,006,002,002,001,006,001,001,002,001,006,004,001,004,005,002,004,002,001,001,002,002,001,001,009,006,006,006,00</t>
         </is>
       </c>
     </row>
@@ -1665,11 +1665,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30680</v>
+        <v>16</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>22,00</t>
+          <t>22,00161,00176,0020,0016,006,00118,00167,0069,0076,002,0019,0010,00185,0024,008,00117,0012,0015,00181,0019,00193,003,005,00101,0029,008,004,0071,0011,0019,00102,005,00211,0096,00134,0016,0011,0051,006,00168,007,00145,0011,009,00200,007,008,00145,00122,00137,005,0059,002,0015,00165,00153,00188,0010,0085,002,004,0024,0015,00218,004,00169,0013,004,00266,00252,0010,00182,006,00141,0017,00152,005,00106,00116,00151,00162,0012,00192,0020,0012,0017,00245,0058,0020,00219,0015,00196,0011,0022,00217,00155,0034,0013,00192,00186,007,00143,005,00211,0077,0016,00122,0030,0016,008,0012,0023,0016,0097,00209,00132,00199,0010,0017,00213,00230,0018,0020,00190,00212,008,0013,007,00113,0015,00121,0016,0015,006,00205,00152,00216,00157,0014,0022,0013,00167,00211,00175,004,009,0014,00218,004,00139,00203,0010,00213,0014,00231,0015,008,00230,0015,0021,00123,004,00222,00199,003,0011,00182,0011,0014,00134,0081,0021,0027,0011,00127,00167,0019,0055,00242,00205,0011,00139,00243,00172,007,0016,003,00153,00125,0012,0050,0014,00160,00139,006,00123,0096,008,0013,0010,00139,00104,0018,0099,0096,0017,005,006,00128,0061,005,0012,00142,003,00142,00143,00117,009,0012,005,0064,009,0014,0013,0096,00109,0090,00129,007,00141,0011,007,00120,00123,0088,003,0010,00146,00130,00105,00169,00179,002,007,009,008,0010,00173,00423,0039,0028,00416,0033,0027,00389,00329,0037,0036,00375,00343,0036,0027,00421,0026,005,0022,00389,0039,00324,00441,00288,00226,0036,00258,0037,0029,00402,0022,00351,00448,00317,00413,0033,0042,00341,00415,0018,00451,0028,0011,0014,00357,00187,0013,0047,00248,0032,00427,006,00401,00463,0035,0041,0017,0015,00429,00234,00439,0040,0012,00104,005,00147,0037,006,004,0099,009,0014,006,008,00126,00112,00116,005,00150,005,0015,00186,0014,0066,0032,0019,00113,001,00136,004,00110,008,0083,00143,00111,0013,00170,0017,00145,0011,005,0037,00132,005,00152,009,0012,00110,009,0021,008,004,003,00127,00150,007,00139,00157,0062,007,00168,0014,00139,0088,001,0013,004,004,003,009,009,009,002,0011,006,001,0010,006,001,0019,002,002,005,002,002,007,007,009,0010,007,007,001,006,0010,001,007,007,006,001,001,001,002,008,002,003,007,0010,008,00184,0067,002,0014,0016,00142,003,00207,00152,0017,007,00128,0014,00184,00192,001,00161,0014,0075,0023,00174,0017,0012,00147,00137,0040,00123,0014,0010,00170,0015,006,00184,008,004,00197,00163,00201,0059,0022,0016,0092,009,0013,00173,00174,001,00158,0017,00161,00159,0012,00100,007,0020,0064,0016,00200,0014,00124,001,0014,00515,0046,0041,00813,00329,0061,00700,0086,00449,0042,00450,0036,00106,0090,0056,0046,00463,00460,00609,0023,00593,0060,00175,0051,00367,00457,0026,00759,0046,001040,0039,00627,00720,00439,0037,0032,0033,0035,0036,00491,00754,0049,00410,00411,0072,00240,00585,0034,0028,00437,0027,00392,0040,00871,0039,00555,00374,00502,0030,00532,0031,0035,007,006,004,003,001,001,002,001,007,003,008,001,006,004,002,009,001,006,0011,008,005,004,004,007,003,004,001,006,004,005,003,0010,001,005,003,001,0010,005,006,007,002,003,003,001,002,002,002,005,001,001,001,004,003,003,001,001,002,001,001,001,002,002,0013,0014,0025,0014,0025,0013,0015,009,0022,0026,0024,0014,0024,0015,0016,0020,0027,0018,0012,0021,0014,0019,0017,0013,0028,0018,0010,0027,0016,0015,0025,0083,00116,0063,0080,0055,00124,0022,0012,00115,00104,00106,0062,0078,00114,0040,00117,00136,00107,00138,0055,0074,0032,0056,00137,00137,00121,00123,00105,00144,00110,0074,0067,0067,00111,00108,00101,00112,00133,0039,00117,00119,00109,00118,0025,00125,00108,0075,0065,00134,0095,00100,0076,00118,0074,0035,00121,00128,0030,0086,0052,00142,0062,0052,0068,0079,0076,0064,0061,0061,0083,0060,0081,0066,0069,0084,0068,0046,0064,0064,0050,0092,0087,0036,0068,0029,0021,0085,0049,0093,0054,0070,0064,0078,0051,0068,0070,0037,0041,0060,0071,0029,0066,0053,0070,0050,0039,0053,0057,0063,0047,0061,0021,0040,0060,0066,0051,0043,0034,0074,0068,0081,0036,0054,0039,00154,00156,00128,00128,00180,0050,00133,0063,00141,00205,00138,0078,00195,00190,0092,00162,0064,00128,00195,00123,00107,00174,0098,00156,00203,00116,00171,0078,00163,00176,00203,0048,0041,0049,0064,0053,0021,0048,0052,0051,0028,0024,0046,0079,0060,0053,0013,0051,0032,0043,0013,0050,0057,0038,0032,0018,0047,0057,0022,0056,0066,0062,001,002,002,001,004,001,004,001,001,001,001,001,002,001,001,002,001,001,002,001,002,001,001,0040,0063,0045,0082,0044,0036,0088,0015,0019,0051,0071,0098,0039,0024,0014,0013,0076,0078,0053,0047,0037,0091,0044,0059,0029,0033,0055,0042,0018,00102,0075,001,001,001,001,001,001,00519,001230,00808,00632,001034,00563,00560,00822,00518,00615,00788,001111,00545,00551,00648,00480,001172,00959,00951,00675,00642,00780,00444,00698,00622,001126,00557,00502,00656,001672,001622,009,008,008,007,0012,0011,006,0010,0016,008,008,008,0012,007,009,0012,0011,005,008,0011,007,006,009,0010,006,0017,0012,0012,0012,007,0010,002,003,001,001,003,003,001,002,001,001,001,001,002,002,002,004,002,003,001,001,001,001,001,001,001,002,0053,00130,0018,0097,0029,0021,0013,0071,003,0016,00102,0018,00115,00114,003,0023,0031,0020,0013,00126,00126,0014,0025,00103,0022,0024,00117,0021,0051,0013,0081,0099,0033,0080,00119,0094,0032,0017,0019,0018,0028,00109,0071,0011,0035,0088,0029,004,00107,00131,005,0011,0022,0023,0088,00117,0068,0055,0030,0033,0052,0012,0050,0049,0029,00124,0020,00162,00186,0027,0048,0063,0072,00152,0056,0035,0032,00201,0036,0069,0066,0031,0044,00194,00133,00115,0055,00127,0052,00177,0044,00128,00176,00143,0029,00193,0061,0025,00154,0076,0046,00233,00184,00210,0040,0028,0064,0073,00229,0056,0066,00159,00152,0049,0014,00138,0048,0051,0086,00107,00175,00160,006,0038,0059,00108,00147,0041,0056,0021,00192,00100,0031,0038,00147,00138,00153,0044,00192,0025,00174,00152,00172,0068,0046,0051,0025,0017,00140,0047,0050,001,00136,00136,0018,0010,0071,0072,00159,0034,0060,0030,00166,0027,0096,00121,0040,0052,00122,0023,00143,00148,0014,0028,0042,0060,00151,0031,00170,0042,0042,00125,00158,0043,00118,0036,0093,0013,0032,00123,00143,002,0034,0087,0021,0056,0072,00127,00109,0045,00148,0039,00147,0021,0030,00124,00115,0014,00108,0034,00132,0014,0016,00142,0032,00130,0036,0031,00106,00102,0039,00138,00113,00111,00150,0027,0021,0024,0027,0040,0041,0073,0027,0060,0056,0014,0032,0041,0019,0028,00143,00113,00120,00110,0010,00133,0024,0044,00317,0067,00264,00437,0084,0015,00161,0093,00177,00103,00476,0051,00389,00112,0068,00402,00502,0097,00336,0054,00262,0095,00157,00128,00241,00346,0093,00341,00443,0070,00107,00425,0079,00335,00115,00108,0036,00193,00320,00491,0084,00130,00160,00104,00334,00248,00325,00163,00402,0093,00218,0075,00112,0092,00364,00334,00379,00278,00363,00129,00139,0056,00104,0035,0017,0055,0035,002,0073,0029,00109,0011,00100,00116,0034,0080,0029,0071,0023,0031,0022,0057,0087,0054,0012,0081,00102,0039,0036,0017,0037,0052,0045,00105,0017,0073,00113,0017,004,0025,0022,0065,0034,0027,0020,0027,0050,0065,0078,00113,0031,0044,0027,0015,0011,0024,0083,0087,00102,0084,007,0018,0061,0032,001,003,001,004,004,006,001,001,004,001,003,001,005,002,006,004,001,005,002,003,001,001,003,001,006,001,002,004,009,006,001,001,002,002,001,004,003,001,004,001,002,001,001,007,005,003,003,005,00113,0022,00118,0081,0020,0026,0070,0019,0042,0071,009,0038,00156,0060,0015,0078,00152,00148,0036,0033,0027,0040,0022,0027,00110,0067,00117,0039,00188,0025,0039,00131,00110,00104,0078,0027,0040,0025,00153,0019,00150,00119,0083,0044,004,00118,00109,0029,0038,0064,0010,0060,0067,0012,00149,00109,00124,0019,0026,0087,00157,0032,0010,00638,00122,00713,00481,0048,00517,0037,00428,0040,00471,00726,0066,00362,00102,0072,00427,00348,0052,0092,0055,00456,00464,00158,00112,0042,00484,0063,0071,00435,00421,00285,00384,0064,0068,00190,00548,00377,0061,0090,0066,00375,00536,0073,00201,00602,00450,00603,00457,0066,0071,0062,00584,0035,00378,0068,00455,0086,0056,00273,0043,0050,001,001,004,002,002,005,005,002,003,005,001,002,002,001,001,004,007,001,001,008,001,001,002,001,001,003,001,001,003,001,001,005,001,008,003,007,005,002,001,004,003,005,001,002,002,009,001,001,002,001,001,002,001,002,003,003,002,001,001,001,001,001,001,001,001,001,004,001,0017,0020,0015,0022,0030,0013,0012,0021,0015,0014,0029,0024,0028,0013,0022,0019,0021,0023,0011,0015,0019,0027,0014,0021,0017,0018,0027,0020,0013,0011,0019,0071,0062,00106,0095,0099,0086,0093,00122,00105,0057,0072,0085,0069,00102,0016,0015,0074,0081,0084,00154,0079,0010,0065,0079,0066,00121,0083,0099,0088,0022,0040,00155,00140,0095,0030,0082,00134,00128,00138,0089,00195,00129,00124,00103,0033,00112,0026,00125,0041,00158,00112,0064,00121,00139,00137,00134,00141,00108,00141,00125,0073,00129,0074,0092,0082,0033,0071,0037,0079,0080,00103,0068,0093,0094,0070,0086,0034,00104,00101,0047,0058,00105,0090,0088,0084,00106,00133,0098,0095,00111,00105,0037,0095,0069,0041,0047,0052,0098,0047,0076,0092,0073,0073,0094,0035,0095,0099,0042,0077,0082,0021,0076,0093,0075,0073,00118,0041,0058,0084,0091,0035,0029,0088,0079,00170,00193,00221,00125,00184,00204,00183,00180,0091,00244,00245,00159,00148,00135,00221,00247,00102,00275,00215,00128,0091,0075,00185,00108,00143,00141,00224,00110,00162,00199,00203,0047,0047,0048,0032,0051,0048,0048,0062,0043,0011,0025,0046,0055,0027,0027,0028,0060,0075,0025,0050,0034,0016,0050,0046,0018,0032,0044,0017,0013,0049,0045,001,002,003,003,001,002,002,002,001,002,002,001,004,001,002,001,001,001,005,003,001,001,001,001,0029,0045,0028,0031,0036,0043,0044,0052,0024,0026,0054,0062,0075,0087,0060,0035,0017,0044,0040,0053,0051,0028,0043,0065,0026,0038,0061,0031,0058,0054,0030,001,001,00623,00661,00789,001012,00625,00800,00565,00634,00787,00799,00627,00501,001238,00574,001058,00737,00904,00514,00478,00475,00984,00568,00932,00562,001259,00928,00539,00541,001394,00481,00522,0011,006,007,005,009,006,0010,007,006,007,0011,007,0012,007,002,0013,005,0011,0011,008,006,008,0014,0012,008,005,002,0011,0014,009,008,001,001,003,001,001,002,001,002,002,001,001,001,002,001,003,001,001,002,002,001,002,002,002,001,00</t>
         </is>
       </c>
     </row>

--- a/out/img/core/BR_153_training_testing_data.xlsx
+++ b/out/img/core/BR_153_training_testing_data.xlsx
@@ -469,7 +469,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>370468</v>
+        <v>14008</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>295484</v>
+        <v>10402</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>320796</v>
+        <v>10825</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>372764</v>
+        <v>10366</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>300916</v>
+        <v>9232</v>
       </c>
     </row>
     <row r="7">
@@ -549,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>371980</v>
+        <v>9406</v>
       </c>
     </row>
     <row r="8">
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>428624</v>
+        <v>12776</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>385896</v>
+        <v>10709</v>
       </c>
     </row>
     <row r="10">
@@ -597,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>384328</v>
+        <v>10444</v>
       </c>
     </row>
     <row r="11">
@@ -613,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>391580</v>
+        <v>10484</v>
       </c>
     </row>
     <row r="12">
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>374668</v>
+        <v>10366</v>
       </c>
     </row>
     <row r="13">
@@ -645,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>440020</v>
+        <v>15015</v>
       </c>
     </row>
     <row r="14">
@@ -661,7 +661,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>443632</v>
+        <v>14115</v>
       </c>
     </row>
     <row r="15">
@@ -677,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>353696</v>
+        <v>9357</v>
       </c>
     </row>
     <row r="16">
@@ -693,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>394044</v>
+        <v>10957</v>
       </c>
     </row>
     <row r="17">
@@ -709,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>384720</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="18">
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>387352</v>
+        <v>10108</v>
       </c>
     </row>
     <row r="19">
@@ -741,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>394464</v>
+        <v>10134</v>
       </c>
     </row>
     <row r="20">
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>452284</v>
+        <v>13486</v>
       </c>
     </row>
     <row r="21">
@@ -773,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>412132</v>
+        <v>11162</v>
       </c>
     </row>
     <row r="22">
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>399112</v>
+        <v>10535</v>
       </c>
     </row>
     <row r="23">
@@ -805,7 +805,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>418796</v>
+        <v>11038</v>
       </c>
     </row>
     <row r="24">
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>401660</v>
+        <v>10661</v>
       </c>
     </row>
     <row r="25">
@@ -837,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>462504</v>
+        <v>15325</v>
       </c>
     </row>
     <row r="26">
@@ -853,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>448952</v>
+        <v>14947</v>
       </c>
     </row>
     <row r="27">
@@ -869,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>377076</v>
+        <v>10907</v>
       </c>
     </row>
     <row r="28">
@@ -885,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>348180</v>
+        <v>9399</v>
       </c>
     </row>
     <row r="29">
@@ -901,7 +901,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>224616</v>
+        <v>7543</v>
       </c>
     </row>
     <row r="30">
@@ -917,7 +917,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>311892</v>
+        <v>8943</v>
       </c>
     </row>
     <row r="31">
@@ -933,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>332864</v>
+        <v>9327</v>
       </c>
     </row>
     <row r="32">
@@ -949,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>375564</v>
+        <v>10249</v>
       </c>
     </row>
     <row r="33">
@@ -965,7 +965,7 @@
         <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>396760</v>
+        <v>10424</v>
       </c>
     </row>
     <row r="34">
@@ -981,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>412440</v>
+        <v>10894</v>
       </c>
     </row>
     <row r="35">
@@ -997,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>443828</v>
+        <v>11766</v>
       </c>
     </row>
     <row r="36">
@@ -1013,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>395500</v>
+        <v>11016</v>
       </c>
     </row>
     <row r="37">
@@ -1029,7 +1029,7 @@
         <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>461580</v>
+        <v>15255</v>
       </c>
     </row>
     <row r="38">
@@ -1045,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>418348</v>
+        <v>13657</v>
       </c>
     </row>
     <row r="39">
@@ -1061,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>910520</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40">
@@ -1077,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>1198776</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41">
@@ -1093,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>910826</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42">
@@ -1109,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="n">
-        <v>1004724</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43">
@@ -1125,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>901992</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44">
@@ -1141,7 +1141,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>1042720</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45">
@@ -1157,7 +1157,7 @@
         <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>1060020</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46">
@@ -1173,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>1027978</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
@@ -1189,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="D47" t="n">
-        <v>1067472</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48">
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>997524</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49">
@@ -1221,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="D49" t="n">
-        <v>1180206</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50">
@@ -1237,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="n">
-        <v>529455</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51">
@@ -1253,7 +1253,7 @@
         <v>14</v>
       </c>
       <c r="D51" t="n">
-        <v>476634</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52">
@@ -1269,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>332826</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53">
@@ -1285,7 +1285,7 @@
         <v>8</v>
       </c>
       <c r="D53" t="n">
-        <v>544475</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54">
@@ -1301,7 +1301,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>536176</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55">
@@ -1317,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="n">
-        <v>519118</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56">
@@ -1333,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>599544</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57">
@@ -1349,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>568452</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58">
@@ -1365,7 +1365,7 @@
         <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>546518</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59">
@@ -1381,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="D59" t="n">
-        <v>564746</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60">
@@ -1397,7 +1397,7 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>522713</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61">
@@ -1413,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>593816</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -1469,11 +1469,7 @@
       <c r="C2" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24,0012,007,0023,0020,0017,008,0021,0020,0022,0015,0024,0019,0016,0015,0020,0017,0020,0017,007,0015,0016,0013,0017,0012,0012,0015,0029,0022,0015,008,00241,00251,00242,00148,00277,00289,00238,00124,00212,00228,00100,00161,00267,00248,00160,00170,00311,00261,00185,00199,00228,00147,00210,00244,00164,00167,0053,00192,00131,00116,00105,00325,00335,00332,00310,00339,00316,00322,00204,00299,00322,00102,00329,00279,00215,00275,00218,00291,00252,00173,00233,00209,00237,00330,00261,00242,00285,00184,00206,00244,00202,00212,00261,00160,00251,00214,00250,00209,00268,00234,00238,00252,00180,00171,00247,00149,00153,00245,00221,00161,00150,00234,00235,00214,00158,00210,00189,00216,00230,00125,00220,00234,00183,00194,00171,00195,00122,00141,00178,00184,00203,0091,00189,00143,00178,00168,00125,00147,00188,00208,00203,00121,00132,00195,00182,00148,00140,00124,00163,00199,00145,00173,00150,00189,00601,00440,00649,00570,00270,00422,00598,00397,00440,00431,00438,00451,00496,00469,00459,00516,00526,00571,00313,00533,00674,00658,00482,00484,00597,00665,00621,00608,00557,00615,00616,00126,00182,00207,0087,00173,00214,00131,00178,00134,00121,00147,00114,00111,00126,00153,00227,0080,00171,00215,00184,00185,00116,00209,00174,00148,0046,00248,00118,00190,00191,00172,006,0012,0020,007,0010,003,0012,0012,007,008,008,002,0010,0011,009,0010,007,006,009,0019,007,009,005,006,006,008,001,0016,0015,003,007,00229,00131,00247,00236,00219,00258,00186,00218,00286,00215,00229,00294,00276,00218,00171,0077,00224,00196,00234,00184,00203,00283,00203,00268,00277,00245,00161,00299,00152,00154,00247,001,001,001,001,001,001,001190,001298,001461,001184,001130,001504,002453,001168,001183,001084,001102,001029,001123,001220,001286,001067,001218,001042,001602,001002,001144,001202,001036,001154,001524,001111,001875,001355,001135,001444,001235,0016,005,0018,0018,0013,0012,0014,0016,0012,0019,0010,009,007,0018,009,0022,0014,009,0012,0026,008,0013,0014,004,0017,0018,0010,0016,009,0019,0010,004,001,005,002,005,001,002,004,007,003,002,007,005,004,002,003,004,004,001,003,005,001,002,001,002,003,001,0034,0019,0017,0015,0019,0017,0014,0017,0018,0023,0016,0014,0017,0022,0012,0015,0020,0020,0016,0023,0017,009,0010,0010,0019,0010,0011,0018,0011,0019,0017,00169,00220,00232,00256,00218,0046,00142,00214,00196,00146,00222,00223,00210,00127,00194,00149,00274,00218,00255,00126,00271,00250,00200,00222,00252,00234,00164,00153,00229,00267,00154,00302,00357,00377,00396,00344,00322,00318,00320,00222,00338,00112,00405,00312,00227,00276,00220,00327,00275,00355,00271,00351,00275,00350,00209,00261,00313,00372,00326,00298,00332,00234,00304,00259,00227,00233,00263,00305,00235,00258,00274,00263,00266,00262,00270,00258,00306,00261,00306,00303,00306,00234,00268,00260,00255,00161,00207,00128,00223,00164,00233,00281,00272,00246,00246,00232,00218,00285,00154,00211,00230,00193,00242,00232,00200,00255,00221,00201,00264,00226,00191,00185,00295,00193,00159,00248,00177,00237,00217,00102,00271,00225,00291,00268,00730,00679,00673,00662,00698,00710,00409,00739,00499,00567,00586,00581,00474,00533,00510,00586,00712,00449,00764,00736,00687,00484,00335,00821,00627,00521,00595,00706,00664,00713,00595,00104,00146,00164,00149,00113,00109,00156,00181,00174,00164,00102,00164,00201,0053,00120,00152,00166,00179,00203,00149,00202,00137,00135,00157,00203,00128,00134,00146,00191,00154,00133,0032,009,007,007,0028,006,0021,003,0012,0018,0010,0010,003,004,008,005,007,008,0010,006,008,008,007,005,0013,0010,004,007,003,0028,00245,00201,00204,00180,00268,00214,00169,00241,00144,00211,00143,00226,00145,00235,00180,00268,0094,00225,00279,00262,00227,00175,00228,00186,00212,00132,00226,00195,00265,00164,00240,002,001,001,001,001,001,001285,001071,001310,001282,001070,001316,001290,001533,001263,001180,001718,001467,001155,002616,001397,001305,001370,002131,001231,001201,001186,001364,001447,001766,00994,001685,001135,001146,001322,001220,003308,005,0016,0018,0015,008,0019,0012,0019,0015,0016,0023,0021,009,0016,0018,0011,0014,0018,0018,0018,0012,0018,0015,0013,0013,0018,0015,0015,0016,0014,0014,005,002,002,003,006,002,007,003,005,004,008,004,004,002,005,004,005,006,002,001,003,003,002,001,003,002,003,007,00</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1487,11 +1483,7 @@
       <c r="C3" t="n">
         <v>14</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20,0017,0022,0013,0016,0020,0018,0021,0027,0019,0014,004,0022,0022,0017,0015,0012,0010,0015,0015,008,0023,0012,0014,0013,0022,0015,0022,00200,00199,00110,00169,00185,00231,00258,00298,0099,00182,00115,00314,00309,00205,00119,00310,00286,00145,00142,00283,00282,00350,00134,00269,00260,00239,00270,00251,00155,00298,00211,00402,00325,00204,00280,00160,00195,00276,00261,00351,00205,00312,00345,00293,00330,00237,00330,00323,00329,00377,00257,00305,00318,00347,00275,00218,00175,00252,00211,00239,00181,00276,00252,00139,00230,00277,00188,00328,00267,00281,00157,00238,00282,00250,00228,00186,00213,00178,00213,00212,00224,00235,00261,00225,00166,00200,00161,00175,00182,00143,00145,0097,00185,00183,00147,00207,00152,00179,00188,00209,00193,00206,00176,00218,00162,00160,00211,00193,00191,00266,00194,00183,00449,00433,00531,00659,00573,00586,00651,00682,00566,00735,00723,00620,00661,00667,00628,00551,00731,00910,00386,00643,00619,00593,00653,00663,00700,00507,00642,00652,00177,00239,00134,00202,00187,00240,00251,00229,00247,00246,00225,00254,00225,00256,00302,00174,00229,00232,00206,00230,00213,00267,00197,00339,00169,00129,00268,00232,008,0017,0010,006,007,008,0013,0018,0010,0013,008,0017,007,007,0011,009,0014,0013,0013,007,0012,004,006,0011,007,006,0013,006,00241,00336,00294,00286,00262,00325,00223,00202,00319,00319,00323,00323,00325,00292,00147,00280,00318,00234,00346,00400,00339,00313,00379,00462,00309,00303,00279,00355,001,001,001,001,001,001,00968,00879,001166,001015,00509,00930,001074,001286,001357,001410,00985,001069,001037,001147,001808,00854,00938,00940,00940,001024,001416,001184,00851,00952,001254,001057,002009,001009,0012,0015,0013,008,0014,0013,0016,0013,009,006,0013,0029,008,0014,0029,0018,0016,0020,0017,0011,0010,0018,0013,009,0024,0014,0014,0013,001,005,004,004,001,002,001,003,003,006,001,003,006,003,002,001,005,003,004,004,003,002,003,002,0018,0029,0021,0012,0022,0013,0018,0020,0019,0020,0012,0010,0023,0010,0028,007,0012,0022,0022,0016,0011,009,0015,0016,0010,0014,0022,0011,00221,00208,00139,00257,00242,00171,00123,00210,00163,00231,00162,00253,00163,00153,00155,00165,00230,00153,00226,00235,00215,00237,00223,00227,00219,00320,00250,00266,00342,00324,00363,00363,00379,00300,00360,00475,00292,00272,00433,00372,00300,00364,00361,00393,00272,00253,00249,00388,00315,00281,00246,00369,00324,00411,00393,00410,00280,00284,00268,00270,00376,00328,00201,00221,00267,00308,00310,00302,00342,00309,00272,00266,00291,00301,00331,00300,00263,00255,00317,00370,00336,00338,00334,00301,00262,00199,00339,00228,00293,00189,00283,00296,00199,00256,00274,00330,00205,00217,00272,00249,00259,00214,00263,00298,00214,00167,00220,00288,00253,00214,00214,00264,00604,00630,00800,00567,00823,00629,00770,00847,00528,00679,00650,00662,00918,00548,00702,00643,00625,00757,00768,00629,00767,00525,00575,00780,00690,00568,00683,00719,00169,00191,00184,00136,00210,00174,00130,00139,00208,00207,00142,00144,00125,00171,00165,00154,00168,00177,00157,00204,00128,00124,00150,00201,00184,00204,00146,00162,0012,009,0011,009,009,0023,0011,0012,004,0011,008,0011,0010,0014,0015,0016,0016,007,0018,0010,0011,0017,009,0011,008,006,0014,008,00155,00247,00145,00163,00202,00167,00267,00235,00200,00154,00261,00218,00177,00118,00202,00276,00251,00207,00154,00267,00254,00134,00216,00199,00207,00168,00222,00196,001,001,001,001,001,001,001,001,001,001,00917,001087,001112,001034,001214,001274,001119,001199,001140,001728,001027,001273,001227,00947,001028,00768,00944,00951,001218,001016,001616,001041,00808,001201,001064,001089,001810,001471,0018,0014,0015,0024,0013,0018,0022,0016,0010,0013,009,0012,0021,0017,0014,0014,0021,0013,009,0012,0018,0021,0012,0027,0027,0020,0014,0017,002,005,002,005,005,005,001,004,002,003,004,004,004,004,007,005,001,004,003,004,005,004,004,004,001,002,00</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1505,11 +1497,7 @@
       <c r="C4" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17,0021,0013,0020,0013,0015,0013,0017,0011,0018,0022,0021,0025,0021,0021,0029,0013,0018,0025,0020,0019,0018,0019,0021,0022,0018,0016,0023,0023,0023,0020,00303,00292,00268,00194,00248,00290,00299,00172,00232,00275,00293,00259,00261,00256,00282,00283,00299,00276,00225,00190,00268,00288,00257,00237,00122,00115,00134,00217,0093,00229,00185,00397,00332,00353,00308,00381,00353,00358,00341,00350,00298,00321,00355,00245,00338,00268,00346,00291,00245,00369,00287,00206,00303,00306,00264,00292,00224,00263,00185,00332,00344,00224,00203,00271,00210,00251,00247,00234,00231,00267,00183,00191,00265,00258,00272,00269,00272,00237,00265,00220,00264,00286,00232,00225,00217,00178,00241,00300,00223,00214,00239,00280,00273,00208,00155,00219,00164,00220,00163,00209,00152,00241,00199,00201,00168,00198,00193,00181,00197,00155,00254,00195,00178,00185,00184,00156,00204,00177,00177,00170,00187,00215,00208,00177,00683,00653,00702,00679,00699,00620,00605,00651,00491,00519,00655,00626,00500,00521,00658,00679,00668,00637,00653,00624,00682,00732,00605,00474,00656,00634,00472,00555,00748,00655,00632,00277,00246,00249,00205,00227,00190,00221,00218,00236,00247,00240,00254,00212,00243,00162,00205,00232,00184,00194,00217,00179,00201,00237,00230,00212,00163,00212,00211,00254,00233,00162,007,008,0013,0019,009,0010,009,0025,0013,008,007,0017,008,0010,0012,0017,0014,009,004,0010,0018,006,0018,0021,0015,007,001,0012,001,0014,0012,00352,00249,00334,00294,00308,00339,00332,00328,00287,00304,00332,00367,00297,00207,00301,00262,00324,00295,00246,00373,00294,00331,00325,00289,00270,00329,00311,00377,00313,00274,00282,001,002,001,001,001,001,002,001,001,001,001,001,001053,00945,00935,00963,00971,00961,001291,001115,001317,001408,00879,00871,00979,001003,001246,00920,00982,00874,00982,00885,00892,00967,00965,001045,00961,00900,001286,001071,00815,00975,00962,0016,0014,0011,0021,0010,0013,0012,0016,0012,0019,0012,0013,0012,0013,0011,0015,0011,0021,0018,0011,0013,0025,008,0017,0011,008,0010,0019,0020,0010,0013,001,005,001,003,002,002,001,003,001,006,002,009,001,004,005,005,001,004,001,006,004,008,007,002,008,002,003,003,002,006,0023,0022,0017,0011,0014,0023,0019,0023,0010,0013,0011,0018,0021,0025,0018,0020,0016,0021,0014,0023,0017,0027,0016,0013,0014,0021,0017,0027,0018,0014,0019,00276,00228,00195,00163,00277,00254,00243,00155,00218,00251,00264,00221,00236,00277,00248,00275,00146,00271,00137,00286,00126,00293,00281,00181,00225,00169,00234,00232,00254,00219,00197,00360,00342,00362,00368,00396,00416,00316,00223,00321,00325,00211,00308,00333,00389,00404,00289,00258,00297,00338,00302,00330,00250,00335,00387,00316,00345,00298,00322,00317,00304,00365,00199,00219,00283,00252,00293,00293,00271,00316,00356,00367,00265,00327,00211,00352,00316,00226,00274,00261,00246,00294,00218,00279,00267,00208,00280,00218,00327,00229,00262,00273,00227,00273,00240,00266,00295,00257,00279,00257,00291,00265,00304,00268,00218,00280,00328,00253,00200,00302,00246,00205,00233,00296,00289,00241,00298,00222,00265,00286,00313,00180,00277,00254,00636,00608,00792,00689,00943,00795,00838,00572,00888,00519,00773,00750,00860,00647,00586,00614,00883,00584,00692,00822,00709,00689,00783,00677,00685,00831,00562,00716,00628,00613,00806,00183,00227,00132,00204,00223,00137,00213,00172,00193,00176,00243,00192,00209,00211,00148,00213,00157,00119,00175,00207,00169,00130,00230,00160,00203,00148,00151,00146,00205,00166,00154,0040,0016,0025,0055,0032,0017,0038,0044,0019,0030,0031,0017,0036,0038,0015,007,0024,0047,0015,0046,0041,0020,0026,0046,0032,0033,0011,0016,0026,0010,005,00276,00253,00285,00234,00215,00218,00223,00182,00290,00241,00301,00223,00306,00157,00182,00223,00235,00180,00201,00203,00221,00254,00299,00281,00234,00209,00222,00279,00217,00262,00226,001,001,002,001,001,001,001024,001189,001057,001130,001113,001102,001050,00986,001210,001156,001191,001106,001126,001247,001310,001039,001247,001023,00852,00970,001012,00882,001201,00998,001037,001067,001021,001009,001045,00843,00866,0014,0013,009,0018,0014,0018,0020,0016,0018,0013,0014,0018,0020,0013,0019,0016,0023,0019,0014,0020,0015,0012,0020,0015,0023,0012,0023,0017,0016,0010,009,002,002,001,004,004,004,003,002,006,004,002,002,002,004,007,004,0015,006,005,005,003,004,006,005,004,005,005,00</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1523,11 +1511,7 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>21,0017,0013,0018,0027,0040,0051,0015,0011,0016,0012,0024,0018,0013,0020,0028,0018,0018,0022,0026,0021,0014,0087,0020,009,0013,0014,0023,0025,0015,0079,00112,00139,00236,00261,00234,00286,00178,00302,00289,00173,00279,00179,00287,00303,00255,00253,00325,00313,00132,00224,00317,00315,00255,00229,00289,00129,00127,00203,00125,00347,00372,00261,00236,00345,00344,00302,00199,00296,00405,00365,00206,00338,00354,00176,00277,00237,00299,00196,00322,00232,00289,00203,00323,00165,00266,00228,00243,00193,00365,00244,00206,00199,00238,00271,00184,00201,00220,00225,00224,00209,00217,00193,00255,00167,00259,00267,00279,00236,00169,00219,00251,00263,00212,00291,00161,00294,00221,00341,00284,00120,00151,00170,0095,00147,00123,00177,00171,00173,00153,00186,00166,00144,00146,00145,00131,00253,00177,00179,00214,00145,00159,00211,00194,00181,00193,00176,00202,00181,00133,00609,00528,00528,00628,00660,00473,00386,00524,00680,00591,00652,00685,00649,00602,00633,00555,00861,00583,00666,00566,00351,00619,00702,00612,00455,00656,00431,00630,00391,00662,00155,00143,00189,00215,00130,00167,00185,00193,00140,00193,00236,00237,00171,00119,00153,0091,00188,00170,00190,00211,00108,00137,00182,00192,00212,00139,00183,00215,00161,00130,003,0010,003,0013,008,006,006,005,004,0010,004,005,004,0014,006,003,005,0015,002,006,004,002,008,004,005,001,007,003,002,00139,00345,00207,00272,00133,00250,00243,00221,00243,00162,00255,00198,00226,00191,00233,00231,00194,00155,00188,00207,00198,00149,00236,00235,00222,00219,00261,00227,00190,00260,001,001,001,001,001,002,001,001,001,00962,001082,00941,001159,001227,001279,001037,001067,00983,001634,002181,00998,001238,001108,001360,001024,001057,001351,001723,001125,00887,00969,001431,00974,001534,00873,001402,00771,00918,00783,0018,0012,0017,008,0022,0020,0011,0018,0010,0027,0016,0013,003,0011,0010,0017,0016,0015,0028,009,0017,0015,009,0022,0030,0011,0020,0031,0019,0011,002,003,002,001,007,003,003,003,002,003,002,002,005,008,003,003,001,002,004,001,001,007,003,002,003,005,004,003,0012,0016,0033,0046,0024,0021,0036,0024,0018,0020,0036,0022,0017,0013,0038,0014,0021,0024,0011,0026,0018,0020,0016,009,0041,0028,0024,0027,0024,0026,00128,00201,00227,00160,00149,00100,00267,00170,00289,00138,0097,00232,00220,00250,00101,00146,00177,00281,00108,00232,00249,00211,00225,00257,00277,00250,00225,00277,00113,00260,00366,00372,00232,00246,00336,00142,00287,00239,00280,00324,00244,00257,00324,00376,00204,00290,00342,00266,00290,00328,00344,00308,00302,00395,00330,00299,00195,00362,00363,00373,00250,00312,00242,00207,00263,00317,00185,00267,00276,00229,00237,00120,00269,00276,00246,00223,00299,00314,00186,00207,00213,00217,00293,00254,00154,00240,00274,00303,00247,00228,00180,00220,00230,00292,00253,00225,00249,00187,00251,00221,00248,00185,00246,00265,00250,00221,00156,00291,00289,00159,00247,00305,00196,00202,00221,00192,00237,00152,00213,00190,00511,00566,00401,00883,00434,00696,00487,00707,00591,00702,00584,00789,00504,00689,00702,00585,00730,00662,00591,00434,00645,00610,00550,00515,00600,00659,00759,00600,00621,00551,00213,00141,00185,0090,0088,00107,00140,00141,00143,00222,00124,00135,0093,00143,00159,00154,00115,00138,00103,00123,0093,00133,00126,00188,00158,00148,00145,00191,00106,00136,0015,0018,004,009,009,007,006,0010,004,001,003,006,003,004,002,005,004,005,005,0011,008,007,0012,0011,007,0029,0015,004,008,005,00179,00258,00155,00177,00125,00204,00175,00260,00152,00157,00173,00234,00190,00177,00181,00212,00163,00184,00221,00197,00142,00191,00159,00166,00227,00174,00168,00249,00138,00202,001,001,001,001,001,001,00941,001343,001519,001159,001986,00691,001596,001134,001052,00918,001134,00871,001037,001020,001033,001374,001105,00860,001664,001159,001063,001748,001250,001070,001095,001161,00730,001194,001094,001095,0015,0014,0019,0018,0017,0018,0012,0012,0013,0011,0026,0022,0022,0019,005,0014,0015,0026,0017,0022,0018,0016,0013,0015,0021,0014,0021,0014,0015,0014,001,001,007,001,004,001,002,004,003,001,002,006,002,002,007,004,003,002,004,003,005,007,006,003,004,005,001,006,00</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1541,11 +1525,7 @@
       <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10,0013,003,0013,0011,0012,0016,0012,0021,0012,0017,0010,0017,0017,0028,0017,0019,0015,0018,0012,0015,0019,0018,0026,0018,0015,0014,0016,0017,0019,0019,00237,00118,00273,00270,00158,00284,00193,00242,00131,00225,00170,00258,00202,00165,00181,00246,00264,00148,00256,00119,00168,00252,00255,00101,00303,00320,00234,00275,00264,00303,00215,00324,00315,00326,00345,00301,00350,00312,00330,00255,00193,00225,00330,00330,00321,00297,00261,00350,00184,00269,00314,00336,00219,00266,00181,00226,00323,00242,00308,00267,00348,00345,00255,00248,00240,00275,00276,00244,00273,00213,00206,00218,00255,00178,00227,00207,00249,00251,00215,00193,00229,00210,00218,00224,00224,00183,00222,00279,00211,00251,00227,00215,00216,00175,00188,00206,00167,00179,00179,00165,00214,00186,00161,00134,00124,00164,00175,00155,00175,00193,00130,00178,00161,00138,00156,00144,00161,00170,00202,00180,00139,00175,00164,00164,00738,00771,00799,00686,00676,00849,00555,00602,00723,00546,00768,00705,00495,00559,00585,00579,00785,00739,00675,00723,00762,00676,00638,00578,00750,00624,00674,00674,00722,00726,00617,00145,00227,00157,00247,00218,00218,00298,00255,00217,00250,00226,00278,00164,00258,00307,00228,00191,00195,00222,00246,00266,00191,00152,00256,00250,00181,00254,00130,00301,00225,00248,005,0016,006,005,008,003,004,0015,008,006,006,001,006,007,004,005,003,007,003,0012,008,0012,009,003,009,0011,004,005,006,004,009,00313,00282,00319,00255,00331,00308,00288,00315,00313,00331,00204,00334,00335,00260,00252,00227,00237,00281,00264,00211,00207,00281,00313,00283,00251,00238,00322,00339,00300,00336,00270,001,001,001,001,001,001,001,001178,00956,001128,001288,001122,00918,00998,001218,00901,001059,00874,001407,00986,001039,00960,00938,001010,001411,001012,00926,00846,00935,00933,00896,00886,00886,00868,00890,00938,00822,00888,0012,0014,0016,009,0013,009,0011,0017,0012,008,006,0015,0015,0014,0013,007,0013,006,0012,0013,008,0015,0010,0013,009,0011,009,0016,0019,009,0011,003,002,002,004,001,002,004,003,002,006,003,002,005,008,005,004,003,004,002,002,006,001,002,005,003,003,006,003,004,004,0016,0025,0016,0013,0022,0016,0010,0012,0011,0022,0016,0016,0018,0018,009,0018,0028,0012,0064,0018,0018,0021,0013,0028,0019,0027,0014,0019,0024,0022,0018,00141,00223,00230,00133,00148,00244,00156,00116,00198,00138,00130,00221,00247,00124,00247,00243,00226,00162,00252,00256,00234,00245,00265,00226,00257,00236,00201,00266,00228,00198,00209,00418,00415,00449,00386,00384,00424,00399,00459,00400,00440,00413,00418,00369,00431,00352,00408,00388,00371,00454,00340,00320,00272,00334,00298,00391,00259,00341,00354,00443,00373,00282,00339,00283,00330,00283,00319,00344,00342,00367,00288,00297,00390,00355,00329,00320,00340,00380,00267,00256,00325,00309,00296,00258,00323,00330,00297,00226,00257,00239,00232,00205,00285,00277,00162,00192,00236,00269,00233,00299,00243,00249,00235,00287,00281,00245,00245,00178,00271,00174,00255,00229,00223,00236,00263,00202,00230,00266,00225,00240,00239,00280,00287,00215,00590,00693,00764,00597,00878,00494,00806,00816,00873,00674,00699,00748,00609,00647,00672,00599,00590,00895,00650,00430,00784,00578,00780,00742,00637,00663,00544,00881,00624,00637,00750,00156,00191,00186,00189,00124,00143,00196,00114,00182,00139,00187,00164,00141,00126,00113,00128,00189,00147,00147,00161,00139,00226,00124,00130,00146,00197,00139,00199,00184,00138,00190,007,009,005,003,005,005,006,0011,006,002,003,008,003,009,006,006,008,0010,005,004,006,006,009,005,006,006,001,005,006,008,005,00215,00231,00242,00134,00196,00183,00222,00169,00223,00170,00210,00198,00212,00234,00221,00247,00175,00191,00218,00160,00232,00211,00175,00211,00204,00198,00218,00202,00201,00150,00215,001,001,001,00971,001626,001011,001224,00943,001317,001033,00905,00994,001056,00912,001213,00996,00987,00775,001029,001216,001027,001087,001093,001027,001059,00783,00969,001094,00937,001141,00997,001160,001042,001218,0011,0017,0013,0015,0016,0013,0011,0016,0015,0013,0020,0021,0013,0016,0013,0015,0015,0013,0011,0015,0013,0013,0014,008,0019,0015,0011,007,0021,0016,0018,003,004,002,007,006,003,006,005,005,001,003,005,005,002,004,005,002,003,006,001,007,003,001,001,006,003,003,004,00</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1559,11 +1539,7 @@
       <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>29,0010,0018,0017,0019,0014,0017,0013,0025,008,0010,0015,0018,0025,0013,0014,0020,0018,0016,0010,0014,0023,0018,0016,0015,0015,0018,0015,0021,0017,00267,00218,00229,00214,00120,00201,00285,00283,00278,00165,00221,00124,00109,00206,00301,00242,00107,00153,00237,00272,00240,00262,00242,00195,00256,00188,00243,00256,00274,00299,00206,00223,00270,00251,00199,00317,00215,00295,00285,00244,00263,00236,00331,00328,00332,00328,00314,00348,00247,00325,00309,00241,00310,00315,00291,00297,00351,00245,00311,00312,00198,00260,00219,00197,00183,00266,00199,00253,00240,00245,00253,00228,00289,00227,00261,00237,00219,00338,00241,00234,00232,00259,00246,00281,00270,00191,00252,00268,00289,00254,00151,00150,00166,00151,00175,00147,00198,00163,00166,00204,00137,00166,00151,00162,00170,00174,00172,00204,00196,00203,00185,00192,00203,00190,00180,00196,00185,00182,00172,00206,00558,00596,00676,00563,00595,00747,00736,00811,00798,00747,00706,00610,00772,00745,00772,00689,00673,00751,00605,00857,00760,00784,00578,00710,00535,00796,00719,00804,00714,00548,00177,00178,00205,00223,00280,00235,00242,00253,00267,00252,00251,00261,00308,00294,00186,00258,00325,00280,00193,00262,00255,00206,00248,00186,00301,00308,00212,00243,00283,00217,005,004,005,006,0013,006,004,009,007,0011,004,007,0011,003,007,007,0010,007,008,009,0011,006,006,007,006,004,007,005,001,00320,00277,00334,00300,00330,00275,00307,00309,00371,00336,00354,00320,00343,00267,00306,00313,00349,00364,00316,00284,00331,00379,00266,00308,00320,00341,00373,00283,00290,00345,002,001,001,001,001,002,002,001,00902,00859,00989,00828,00979,00828,00863,001030,00809,001388,001001,001470,00813,001297,00962,001082,00834,001192,001059,00971,00805,001363,001446,001060,001276,00890,00931,00874,00916,00913,0011,0019,0011,0014,0016,0013,0012,0016,0012,0014,0010,0012,007,0015,0012,0011,0016,0018,0020,0014,0015,003,0013,0014,0020,0015,008,009,0012,0014,004,006,002,003,003,003,003,003,003,001,005,004,005,003,003,006,005,001,007,009,003,005,004,002,006,008,004,003,004,0028,0023,0023,0018,0017,0020,0012,0020,0020,007,0018,0022,0018,0020,0021,0013,0018,0013,0011,0021,0022,0029,0012,0010,0017,0019,0019,0019,0010,0030,00232,00257,00205,00143,00214,00236,00233,00261,00161,00243,00172,00214,00149,00217,00248,00191,00225,00216,00207,00138,00201,00209,00271,00120,00133,00302,00267,00194,00133,00237,00433,00292,00442,00425,00380,00302,00339,00276,00391,00415,00406,00400,00465,00386,00349,00324,00250,00419,00395,00401,00358,00407,00421,00427,00456,00492,00411,00415,00492,00342,00262,00335,00289,00306,00332,00346,00277,00363,00240,00327,00327,00273,00354,00345,00394,00351,00226,00416,00325,00304,00315,00355,00241,00268,00377,00341,00308,00309,00291,00319,00243,00305,00189,00180,00265,00163,00220,00185,00316,00229,00303,00212,00248,00270,00269,00295,00278,00227,00241,00260,00206,00236,00253,00301,00159,00184,00314,00289,00207,00299,00567,00765,00674,00643,00525,00841,00821,00688,00870,00702,00657,00664,00406,00623,00699,00801,00809,00833,00572,00642,00741,00863,00630,00621,00686,00908,00726,00816,00572,00566,00139,00212,00140,00153,00138,00169,00222,00205,00178,00163,00159,00173,00143,00146,00132,00204,00178,00196,00145,00163,00152,00143,00232,00207,00155,00206,00134,00236,00139,00181,004,0010,0012,002,005,0012,005,008,007,009,008,008,001,007,009,006,005,009,006,008,009,0015,005,003,008,003,009,005,006,0011,00153,00243,00215,00209,00207,00237,00264,00190,00191,00205,00174,00234,00193,00201,00200,00235,00161,00213,00245,00164,00170,00264,00191,00143,00153,00236,00207,00206,00265,00270,001,002,001,001,00976,00865,00951,001113,001112,00913,001056,00874,001302,00993,001154,00826,001021,001426,001011,00967,001116,001050,00883,00897,001325,001069,00991,001145,001098,001078,001643,00917,001300,00846,0018,0018,007,0015,0022,0010,0016,0016,0013,0013,0019,0017,0015,0012,0015,0019,0013,0015,008,0010,0015,0018,0011,0013,006,0017,0019,0013,0017,0015,002,004,003,003,002,003,007,003,006,003,007,003,001,005,002,006,001,006,004,006,003,004,002,008,001,004,004,001,003,003,00</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1577,11 +1553,7 @@
       <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12,0011,00100,0018,0020,0011,0031,0025,0018,0023,0051,0010,0012,0020,0021,0010,0020,0014,0020,009,0027,0016,0015,0014,0026,0026,0021,0016,0049,0018,0052,00260,00254,00108,00289,00142,00226,00226,00281,00262,00192,00165,00177,00108,00169,00206,00179,00264,00102,00275,00274,00248,00111,00298,00240,00234,00156,00274,00191,00255,00267,00252,00329,00374,00309,00223,00323,00336,00335,00265,00315,00324,00266,00202,00252,00341,00358,00287,00335,00345,00263,00275,00263,00323,00220,00321,00270,00171,00279,00210,00261,00299,00359,00266,00240,00246,00277,00213,00234,00261,00211,00284,00274,00256,00242,00232,00235,00227,00263,00283,00232,00274,00289,00198,00237,00231,00273,00320,00304,00230,00287,00271,00258,00273,00180,00157,00189,00225,00175,00206,00162,00158,00161,00208,00163,00173,00205,00198,00154,00170,00187,00192,00182,00182,00224,00159,00196,00174,00206,00185,00218,00220,00147,00196,00217,00742,00812,00601,00805,00831,00747,00679,00609,00894,00794,00755,00785,00925,00738,00824,00870,00830,00607,00786,00787,00635,00652,00639,00747,00834,00634,00661,00841,00836,00601,00848,00264,00284,00329,00326,00322,00326,00203,00306,00310,00350,00331,00245,00228,00268,00292,00367,00283,00282,00331,00309,00224,00288,00289,00340,00267,00241,00180,00294,00333,00291,00322,009,008,003,005,004,006,005,007,0010,0011,003,006,004,005,005,009,007,009,006,008,007,007,007,006,0011,0012,0011,008,007,0012,004,00440,00298,00355,00467,00421,00325,00387,00447,00389,00356,00415,00354,00348,00311,00362,00435,00293,00405,00351,00367,00368,00345,00382,00300,00414,00322,00343,00347,00294,00363,00375,002,001,001,001,001,001,002,001,001,001237,001246,001279,001309,001178,001644,001419,001158,001223,001521,001139,001253,001074,001407,001395,001169,001074,001074,001700,001101,001098,001036,001346,001193,001376,001408,001195,001216,001263,001442,001220,0016,0024,0017,009,007,0017,0017,0011,009,0015,0015,0015,0017,0011,0014,0014,0018,0010,006,0011,0013,0016,0010,0017,0018,0010,0019,0010,0015,0017,0016,002,003,002,001,003,004,003,004,006,003,001,001,003,002,003,004,001,003,003,004,0011,003,003,003,0012,003,008,004,004,0023,0011,0014,0048,0018,0021,0020,0058,0017,0034,0022,0019,0073,0029,0016,0015,0031,0023,0020,0019,0018,0029,0021,0012,0019,0021,0027,0018,0016,0040,0065,00148,00248,00246,00244,00225,00143,00248,00130,00261,00155,00272,00229,00239,00136,00153,00259,00272,00139,00240,00237,00238,00243,00146,00256,00214,00244,00228,00141,00214,00235,00155,00574,00416,00434,00487,00512,00479,00299,00504,00432,00409,00346,00479,00504,00392,00504,00324,00424,00469,00476,00449,00433,00504,00384,00471,00495,00448,00454,00531,00305,00505,00462,00290,00323,00408,00410,00300,00364,00395,00385,00436,00339,00326,00348,00363,00321,00317,00390,00313,00284,00348,00361,00283,00359,00267,00362,00366,00367,00372,00324,00360,00392,00369,00313,00307,00269,00292,00196,00270,00265,00247,00317,00249,00210,00258,00300,00257,00311,00236,00212,00246,00295,00223,00272,00243,00244,00201,00267,00348,00323,00342,00272,00247,00247,00850,00730,00774,00833,00834,00679,00667,00609,00745,00763,00936,00836,00647,00597,00920,00555,00533,00613,00691,00648,00899,00815,00752,00611,00739,00780,00755,00916,00745,00743,00907,00234,00166,00229,00148,00146,00198,00175,00167,00165,00150,00177,00205,00168,00205,00197,00214,00164,00195,00202,00211,00190,00203,00200,00182,00171,00205,00148,00228,00142,00199,00168,005,006,009,0010,0012,005,005,007,005,0010,0014,0012,008,0015,0010,0010,007,0011,004,0010,008,008,003,0013,005,009,005,006,008,0010,009,00230,00228,00231,00179,00233,00227,00260,00271,00280,00270,00274,00223,00208,00191,00244,00211,00277,00283,00243,00260,00168,00170,00250,00221,00231,00176,00263,00185,00221,00274,00152,001,001,001195,001552,001391,001382,001494,001373,001356,001616,001179,001489,001272,001320,001291,001162,001118,001505,001442,001150,001370,001461,001306,001135,001424,001305,001252,001388,001587,001140,001287,001349,001284,0019,0012,0012,0016,0017,0010,0021,0023,0013,0020,0010,0014,0019,0015,0019,0021,0014,0011,0015,007,0020,0010,0010,0015,0014,0011,0017,0015,0022,0020,007,001,003,004,002,002,005,003,002,001,004,002,003,003,001,006,007,0010,003,004,002,004,0021,006,002,008,002,002,003,002,004,002,00</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1595,11 +1567,7 @@
       <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10,0025,0021,0017,0016,0018,0010,0019,0018,0012,0022,0019,0017,0017,0017,0022,0012,0015,0015,0017,0014,0016,0022,0017,0025,0018,0030,0016,0019,0016,0022,00313,00262,00310,00267,00262,00273,00280,00270,00185,00316,00247,00201,0095,00276,00264,00262,00114,00243,00113,00191,00269,00168,00300,00270,00291,00162,00216,00110,00176,00228,00171,00256,00261,00292,00262,00322,00339,00389,00296,00380,00367,00273,00322,00336,00317,00384,00332,00334,00337,00206,00345,00367,00336,00218,00269,00352,00357,00225,00256,00216,00373,00298,00301,00331,00297,00253,00198,00277,00340,00307,00214,00230,00303,00300,00264,00322,00290,00290,00208,00347,00262,00204,00284,00276,00225,00255,00290,00264,00325,00244,00251,00231,00272,00173,00165,00174,00152,00200,00181,00177,00186,00239,00203,00211,00213,00223,00194,00131,00178,00215,00211,00216,00208,00235,00146,00181,00214,00164,00141,00206,00209,00192,00206,00197,00594,00586,00620,00714,00833,00808,00586,00746,00816,00718,00834,00583,00709,00737,00619,00575,00821,00802,00818,00739,00831,00759,00809,00771,00733,00807,00795,00729,00803,00820,00583,00232,00155,00227,00248,00218,00245,00159,00289,00281,00317,00303,00197,00239,00271,00343,00230,00306,00213,00289,00299,00282,00263,00257,00186,00295,00271,00264,00297,00252,00199,00179,0013,004,005,004,0010,0010,005,0011,002,008,006,003,005,0011,006,005,008,006,005,004,007,006,006,004,007,008,008,0010,006,002,009,00336,00361,00222,00212,00337,00438,00315,00294,00371,00239,00317,00444,00375,00344,00394,00380,00371,00326,00314,00286,00394,00295,00302,00399,00352,00380,00380,00362,00383,00367,00403,002,001,001,001,001,001,001,00813,00902,001127,00968,00935,00981,001361,00941,00969,001218,00957,00886,00996,001416,00991,001038,001041,00895,001497,001117,00908,001013,00979,00878,00896,00958,001017,001315,00983,00964,001411,0013,0010,008,0011,0011,0012,0011,0012,0018,007,0012,0014,009,0010,0010,0015,0017,0022,003,0014,0012,0017,009,0020,0013,0016,0011,0019,0011,0012,007,009,005,005,008,002,002,005,006,002,005,004,005,005,003,003,008,003,006,002,003,007,003,003,006,002,005,005,001,001,0021,0015,0019,0037,0022,0018,0010,0016,0016,0023,0010,0015,0019,0020,0018,0019,0023,009,0015,0032,0013,0015,0027,0015,0014,0022,0016,0032,0026,0015,0015,00208,00244,00113,00225,00147,00225,00263,00141,00301,00152,00265,00227,00150,00246,00284,00237,00217,00222,00271,00111,00140,00267,00128,00236,00274,00236,00270,00297,00276,00271,00229,00365,00254,00353,00296,00279,00344,00393,00413,00357,00411,00422,00452,00453,00442,00332,00275,00465,00458,00369,00426,00394,00470,00411,00447,00408,00405,00412,00367,00423,00400,00443,00262,00327,00315,00292,00237,00349,00372,00337,00320,00346,00343,00333,00254,00331,00336,00344,00391,00293,00367,00269,00288,00254,00374,00328,00369,00363,00341,00333,00375,00378,00299,00283,00248,00274,00196,00190,00267,00259,00285,00285,00283,00277,00200,00268,00298,00288,00277,00243,00221,00316,00262,00239,00279,00243,00186,00284,00230,00263,00261,00257,00277,00316,00658,00553,00655,00725,00732,00857,00680,00579,00861,00694,00641,00777,00851,00715,00797,00852,00549,00888,00607,00765,00681,00815,00838,00939,00685,00905,00862,00676,00620,00654,00787,00223,00216,00191,00216,00189,00207,00164,00209,00173,00253,00174,00207,00196,00233,00219,00245,00182,00156,00231,00175,00163,00176,00226,00226,00211,00203,00163,00152,00240,00189,00178,005,004,0010,0011,0011,006,006,005,009,005,003,0012,009,006,003,0012,004,0010,005,007,0013,007,007,009,004,003,0010,0012,007,007,006,00238,00204,00259,00255,00298,00215,00233,00198,00203,00340,00312,00270,00200,00237,00238,00238,00177,00254,00215,00213,00203,00245,00298,00253,00207,00258,00245,00202,00248,00317,00301,001,001,003,001,001,00964,00888,001259,001240,00981,001002,001103,00936,00955,001159,001033,001444,001114,001113,00942,00946,001134,001135,00978,00861,00982,001044,00983,001019,001163,001215,001104,001009,001473,00874,00849,0011,0019,0012,0012,0015,009,0011,0013,0018,0022,0010,0015,0020,0018,0011,0013,0015,0012,009,0011,0013,0014,0014,0011,009,0014,0012,0012,0015,008,0011,0010,003,003,001,002,005,001,004,008,006,003,007,004,001,005,004,006,006,003,006,001,003,004,005,0011,006,001,001,005,003,001,00</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1613,11 +1581,7 @@
       <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9,0016,0014,0016,0028,0037,0023,0010,0018,0022,0019,0023,0031,0011,0014,0026,0045,0021,0025,0029,0018,0020,0057,0018,0019,0021,0030,0021,0022,0015,00312,00267,00274,00272,00113,00192,00269,00254,00247,00248,00201,00255,00257,00187,00267,00186,00117,00185,00251,00247,00111,00170,00227,00281,00201,00203,00186,00177,00302,00104,00322,00341,00283,00329,00353,00417,00329,00366,00304,00322,00365,00330,00259,00333,00355,00293,00303,00411,00362,00375,00298,00268,00300,00240,00390,00268,00229,00255,00292,00274,00255,00299,00284,00275,00220,00263,00347,00314,00195,00309,00279,00285,00251,00312,00289,00271,00263,00269,00248,00280,00289,00233,00314,00256,00292,00226,00254,00207,00337,00227,00190,00193,00204,00157,00216,00184,00197,00206,00163,00220,00171,00194,00218,00220,00225,00215,00212,00204,00200,00216,00188,00168,00204,00245,00185,00197,00230,00211,00149,00169,00829,00704,00592,00763,00734,00756,00784,00606,00752,00554,00745,00751,00847,00550,00643,00828,00718,00847,00745,00566,00519,00866,00631,00782,00716,00836,00737,00735,00585,00588,00265,00264,00270,00237,00201,00241,00258,00178,00253,00299,00182,00261,00190,00261,00299,00244,00260,00255,00168,00195,00236,00261,00243,00174,00263,00228,00253,00276,00162,00273,0014,0011,003,001,008,009,007,008,008,004,0012,003,0011,0012,009,007,0012,0010,007,004,006,009,009,004,006,0013,004,0018,004,004,00388,00368,00355,00383,00354,00250,00328,00336,00373,00295,00389,00334,00353,00372,00325,00396,00329,00348,00274,00270,00395,00259,00368,00408,00262,00391,00285,00355,00275,00337,002,002,001,001,00956,00953,00916,001201,00876,001169,001181,00892,00912,00936,00993,00908,00924,00927,001119,00963,00811,00934,00876,001274,001073,00901,00892,001522,001442,00865,00874,001116,001589,00904,0010,0018,0014,009,0014,005,0016,006,0010,009,0016,0010,0016,008,0013,0014,0011,0017,0011,0019,008,0014,0018,0010,0014,0020,006,0012,0013,0010,001,009,005,001,005,002,002,002,001,008,004,009,001,004,005,002,006,003,002,004,003,001,002,004,003,003,003,003,0011,0014,0016,0019,0017,0020,0037,0021,0024,0031,0026,0016,0021,0029,0020,0024,0017,0014,0019,0023,0025,0048,0035,0022,0015,0015,0023,0032,0016,0022,0021,00232,00183,00241,00248,00225,00109,00167,00266,00260,00235,00207,00254,00251,00134,00221,00258,00232,00269,00232,00260,00144,00133,00122,00213,00256,00263,00179,00148,00133,00135,00409,00402,00284,00465,00334,00344,00421,00482,00330,00365,00426,00447,00426,00423,00307,00408,00370,00289,00374,00354,00447,00364,00233,00269,00432,00405,00280,00331,00441,00412,00284,00329,00336,00269,00383,00305,00406,00280,00383,00321,00246,00306,00362,00317,00229,00379,00387,00407,00356,00376,00343,00317,00349,00257,00337,00365,00324,00287,00299,00275,00230,00233,00247,00240,00292,00275,00199,00306,00281,00240,00314,00316,00291,00187,00186,00202,00214,00245,00221,00243,00317,00276,00207,00251,00164,00298,00296,00307,00271,00286,00811,00787,00672,00809,00659,00776,00649,00696,00863,00824,00552,00675,00585,00803,00685,00948,00684,00481,00514,00594,00752,00609,00647,00638,00862,00878,00685,00623,00823,00839,00172,00183,00169,00167,00183,00186,00226,00218,00180,00138,00152,00176,00230,00226,00171,00242,00232,00145,00147,00213,00224,00168,00149,00246,00160,00133,00203,00206,00225,00205,004,009,006,007,0012,0011,0013,009,009,007,006,0014,005,007,005,005,004,004,008,004,006,0011,0013,0010,005,004,005,0011,006,00245,00274,00283,00266,00213,00302,00300,00278,00255,00226,00266,00293,00305,00228,00294,00234,00319,00238,00281,00227,00323,00234,00336,00280,00277,00230,00239,00262,00287,00243,001,001,001007,001026,001321,00850,001029,00925,00972,001476,001109,001053,001032,00817,00860,001488,001094,00749,001153,001103,001050,00989,00953,00971,001039,00952,001009,001850,00960,001032,00867,00901,0011,0015,0014,009,0015,0016,0011,0017,0021,0010,0015,0013,0012,0011,008,0012,0013,0011,0021,0014,0016,0024,0010,0014,0014,0016,005,006,0016,0014,006,0010,006,004,002,001,006,001,004,001,006,006,003,002,002,004,003,002,005,008,004,006,003,001,004,003,003,006,009,00</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1631,11 +1595,7 @@
       <c r="C11" t="n">
         <v>21</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15,0023,0022,0015,0021,0021,0016,0032,0012,0011,0023,0033,0015,0017,0018,0019,0019,0027,0011,0014,0015,0026,0035,0020,0011,0019,0025,0015,0011,0010,0017,00207,00252,00245,00281,00201,00288,00269,00212,00181,00271,00161,00134,00168,00259,00113,00261,00311,0095,00269,00192,00177,00227,00236,00236,00248,00134,00280,00288,00204,00126,00264,00215,00297,00310,00251,00252,00386,00255,00207,00325,00357,00254,00298,00335,00341,00197,00251,00283,00278,00280,00318,00277,00204,00345,00301,00366,00327,00349,00308,00338,00312,00370,00282,00289,00330,00221,00301,00206,00350,00231,00273,00245,00306,00253,00269,00204,00211,00247,00236,00252,00231,00268,00251,00212,00281,00250,00300,00245,00159,00239,00252,00244,00282,00170,00195,00221,00229,00159,00201,00199,00212,00176,00179,00153,00206,00218,00156,00231,00218,00148,00183,00143,00182,00159,00187,00148,00187,00232,00218,00171,00201,00163,00151,00224,00571,00563,00533,00691,00696,00573,00515,00704,00536,00750,00662,00718,00719,00829,00613,00695,00706,00780,00660,00514,00708,00779,00766,00624,00556,00753,00833,00588,00748,00678,00698,00215,00262,00259,00354,00304,00300,00308,00231,00260,00228,00291,00204,00253,00188,00277,00195,00189,00267,00313,00298,00190,00262,00278,00289,00185,00208,00205,00247,00274,00197,00322,006,0014,0011,009,008,006,0014,007,0015,0011,004,0014,007,004,008,0012,0019,007,004,004,008,0011,009,008,0014,0015,003,0014,0012,006,00246,00308,00286,00298,00326,00358,00274,00394,00328,00316,00273,00297,00364,00220,00309,00361,00311,00288,00306,00363,00341,00269,00470,00443,00355,00350,00341,00391,00369,00275,00390,001,001,001,003,001,001,001,001,00872,00836,00893,00958,00938,001039,001060,00964,00961,00854,00895,00836,001542,001025,001545,001029,001255,001012,00779,001322,00861,001035,001603,00902,001197,00865,00950,00837,00883,00893,00876,0012,0017,0014,007,0012,0012,0012,0018,0014,0017,0019,0025,007,002,0016,0010,0017,0010,0017,0013,0011,0022,0014,0013,0011,0012,0024,0012,0030,0013,009,002,0010,0011,004,002,005,003,003,003,001,004,005,003,003,002,001,001,003,001,002,005,003,002,004,001,006,006,0010,004,003,0016,0017,0025,0021,0010,0022,0032,0013,0023,0021,0011,0019,0018,0011,0018,0017,0024,0014,0020,0013,0012,0029,0022,0024,0010,0017,0011,0027,0015,008,0019,00256,00254,00290,00268,00138,00261,00258,00114,00206,00236,00220,00214,00217,00229,00189,00166,00252,00244,00154,00246,00249,00247,00203,00148,00232,00139,00151,00182,00161,00123,00214,00421,00432,00383,00237,00256,00404,00388,00352,00429,00407,00374,00384,00411,00387,00396,00445,00412,00297,00358,00417,00364,00474,00446,00308,00427,00363,00299,00351,00490,00452,00241,00344,00326,00299,00335,00298,00339,00371,00349,00370,00305,00269,00322,00347,00236,00292,00302,00293,00207,00323,00356,00336,00351,00343,00248,00341,00289,00377,00278,00359,00255,00316,00228,00196,00331,00193,00282,00246,00264,00231,00213,00284,00217,00272,00219,00285,00259,00250,00245,00297,00246,00335,00223,00245,00209,00189,00193,00270,00280,00293,00282,00301,00265,00968,00555,00553,00654,00708,00895,00666,00741,00672,00744,00573,00892,00915,00923,00809,00869,00972,00648,00755,00626,00734,00846,00726,00986,00614,00646,00617,00750,00670,00731,00577,00256,00215,00186,00186,00197,00148,00164,00186,00270,00157,00231,00150,00213,00167,00247,00250,00204,00161,00276,00184,00220,00209,00228,00169,00189,00225,00203,00173,00216,00166,00181,0011,0013,005,006,004,005,009,0012,004,004,007,004,0015,005,003,006,0012,007,003,006,005,007,009,008,0010,004,004,0011,0010,0010,009,00165,00319,00285,00147,00168,00241,00177,00217,00271,00270,00178,00215,00306,00223,00215,00336,00209,00224,00280,00179,00273,00267,00208,00259,00210,00284,00286,00204,00221,00314,00171,002,001,001,002,001,002,001,00936,001150,00913,001038,001363,00985,001355,00943,00927,001077,001060,00774,00869,00948,00974,00940,001865,00869,001180,00930,00980,00902,001452,001006,00908,00805,00871,00848,00870,001072,001013,006,0018,008,0025,0028,0012,0014,0016,0016,007,0016,0015,0016,0012,0018,0013,0011,008,0011,0012,0020,0021,0014,0012,0013,0019,006,0011,0028,0022,008,0012,006,003,002,002,001,006,003,004,005,008,003,003,001,002,005,004,004,007,003,003,003,008,005,002,004,004,005,003,00</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1649,11 +1609,7 @@
       <c r="C12" t="n">
         <v>18</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16,0013,0010,0013,0012,0019,0023,0019,0024,0020,0017,0026,0019,0014,0014,0034,0023,0021,0030,009,0027,0015,0014,0012,008,009,0011,008,0016,0013,00306,00118,00285,00327,00278,00253,00219,00309,00273,00177,00288,00298,00250,00206,00231,00263,00220,00264,00283,00265,00135,00273,00254,00198,00119,00151,00184,0098,00296,00216,00320,00333,00310,00141,00328,00251,00275,00289,00359,00331,00280,00250,00250,00290,00263,00298,00361,00272,00250,00223,00179,00309,00251,00331,00254,00183,00267,00166,00317,00250,00302,00171,00243,00258,00235,00271,00305,00246,00202,00179,00268,00245,00210,00211,00201,00225,00244,00258,00230,00226,00193,00273,00253,00282,00229,00249,00258,00178,00219,00257,00195,00215,00154,00156,00185,00204,00198,00220,00180,00188,00212,00198,00183,00205,00175,00154,00145,00202,00222,00139,00193,00210,00206,00163,00230,00151,00230,00192,00240,00178,00662,00726,00639,00713,00640,00784,00774,00756,00663,00640,00720,00712,00504,00536,00740,00581,00720,00708,00610,00680,00663,00655,00527,00577,00723,00531,00718,00685,00471,00521,00190,00323,00267,00218,00280,00303,00283,00340,00237,00240,00363,00245,00305,00218,00246,00256,00195,00180,00237,00318,00270,00236,00320,00251,00286,00183,00258,00263,00176,00296,0010,0014,0013,009,0013,008,0013,004,0013,0010,003,006,0021,0021,008,008,009,0013,006,0015,007,006,005,009,0010,0010,008,007,006,0017,00347,00332,00349,00330,00435,00272,00309,00256,00300,00367,00439,00440,00390,00245,00302,00379,00401,00271,00305,00352,00417,00448,00306,00394,00263,00415,00389,00363,00324,00411,001,001,001,001,001,001,001,001133,00956,001186,00852,001284,00780,00913,001283,00977,001385,00898,00883,001017,00928,001059,00898,001150,00955,00861,001098,00936,00955,00878,00888,001025,00915,00980,001156,001200,00899,0010,005,0017,0012,0011,0011,0016,0012,0015,0014,0011,0013,0014,0011,009,0015,0012,0011,0021,0010,0011,009,0011,0018,0013,0020,0013,004,0015,0011,006,002,002,002,005,004,003,004,001,004,007,001,004,002,005,002,003,001,001,003,001,002,002,001,001,004,004,002,008,008,0012,0018,0016,0013,0019,0019,0016,0023,0015,0018,0019,0025,0012,0022,0017,0018,0015,0015,0017,0020,0031,0026,0011,0012,0020,0016,0028,0016,0011,00258,00136,00240,00138,00130,00118,00232,00255,00155,00173,00224,00228,00222,00137,00231,00234,00246,00175,00208,00137,00193,00213,00216,00206,00150,00194,00209,00239,00151,00197,00360,00255,00409,00337,00397,00392,00261,00366,00367,00398,00385,00354,00455,00348,00294,00411,00254,00419,00409,00401,00397,00364,00398,00407,00398,00369,00423,00264,00363,00407,00293,00351,00343,00304,00305,00363,00341,00363,00288,00334,00285,00342,00289,00316,00334,00377,00357,00295,00286,00308,00327,00276,00291,00269,00349,00246,00207,00301,00209,00249,00255,00215,00304,00270,00230,00176,00300,00310,00233,00297,00246,00202,00231,00216,00295,00246,00299,00234,00195,00164,00277,00289,00192,00288,00289,00293,00152,00205,00223,00185,00829,00693,00884,00604,00777,00964,00536,00801,00755,00694,00852,00811,00917,00946,00554,00641,00629,00781,00587,00632,00602,00601,00579,00697,00712,00784,00619,00909,00746,00898,00185,00222,00190,00179,00184,00185,00148,00167,00156,00244,00197,00191,00177,00143,00224,00201,00219,00159,00169,00182,00137,00215,00178,00165,00233,00158,00171,00247,00143,00128,006,007,006,009,006,004,008,007,005,007,009,008,009,0010,008,0014,008,007,0011,006,006,007,006,003,0010,004,007,006,004,0010,00263,00332,00250,00178,00206,00205,00248,00249,00175,00164,00285,00272,00187,00145,00256,00220,00196,00242,00240,00191,00174,00249,00283,00260,00269,00239,00184,00268,00299,00228,001,001,00783,001100,00847,001087,001022,00970,001166,001291,00982,001018,001179,00985,001272,00924,001023,00907,001069,001203,00767,00827,00898,00933,001075,001242,00952,00992,001135,00956,00971,00921,0010,0014,0018,0014,0010,009,007,0010,006,0011,0012,009,006,0011,0012,008,006,006,0010,009,0010,0013,0016,0013,009,008,0014,0015,008,0015,002,006,002,002,001,006,001,001,002,001,006,004,001,004,005,002,004,002,001,001,002,002,001,001,009,006,006,006,00</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1667,11 +1623,7 @@
       <c r="C13" t="n">
         <v>16</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>22,00161,00176,0020,0016,006,00118,00167,0069,0076,002,0019,0010,00185,0024,008,00117,0012,0015,00181,0019,00193,003,005,00101,0029,008,004,0071,0011,0019,00102,005,00211,0096,00134,0016,0011,0051,006,00168,007,00145,0011,009,00200,007,008,00145,00122,00137,005,0059,002,0015,00165,00153,00188,0010,0085,002,004,0024,0015,00218,004,00169,0013,004,00266,00252,0010,00182,006,00141,0017,00152,005,00106,00116,00151,00162,0012,00192,0020,0012,0017,00245,0058,0020,00219,0015,00196,0011,0022,00217,00155,0034,0013,00192,00186,007,00143,005,00211,0077,0016,00122,0030,0016,008,0012,0023,0016,0097,00209,00132,00199,0010,0017,00213,00230,0018,0020,00190,00212,008,0013,007,00113,0015,00121,0016,0015,006,00205,00152,00216,00157,0014,0022,0013,00167,00211,00175,004,009,0014,00218,004,00139,00203,0010,00213,0014,00231,0015,008,00230,0015,0021,00123,004,00222,00199,003,0011,00182,0011,0014,00134,0081,0021,0027,0011,00127,00167,0019,0055,00242,00205,0011,00139,00243,00172,007,0016,003,00153,00125,0012,0050,0014,00160,00139,006,00123,0096,008,0013,0010,00139,00104,0018,0099,0096,0017,005,006,00128,0061,005,0012,00142,003,00142,00143,00117,009,0012,005,0064,009,0014,0013,0096,00109,0090,00129,007,00141,0011,007,00120,00123,0088,003,0010,00146,00130,00105,00169,00179,002,007,009,008,0010,00173,00423,0039,0028,00416,0033,0027,00389,00329,0037,0036,00375,00343,0036,0027,00421,0026,005,0022,00389,0039,00324,00441,00288,00226,0036,00258,0037,0029,00402,0022,00351,00448,00317,00413,0033,0042,00341,00415,0018,00451,0028,0011,0014,00357,00187,0013,0047,00248,0032,00427,006,00401,00463,0035,0041,0017,0015,00429,00234,00439,0040,0012,00104,005,00147,0037,006,004,0099,009,0014,006,008,00126,00112,00116,005,00150,005,0015,00186,0014,0066,0032,0019,00113,001,00136,004,00110,008,0083,00143,00111,0013,00170,0017,00145,0011,005,0037,00132,005,00152,009,0012,00110,009,0021,008,004,003,00127,00150,007,00139,00157,0062,007,00168,0014,00139,0088,001,0013,004,004,003,009,009,009,002,0011,006,001,0010,006,001,0019,002,002,005,002,002,007,007,009,0010,007,007,001,006,0010,001,007,007,006,001,001,001,002,008,002,003,007,0010,008,00184,0067,002,0014,0016,00142,003,00207,00152,0017,007,00128,0014,00184,00192,001,00161,0014,0075,0023,00174,0017,0012,00147,00137,0040,00123,0014,0010,00170,0015,006,00184,008,004,00197,00163,00201,0059,0022,0016,0092,009,0013,00173,00174,001,00158,0017,00161,00159,0012,00100,007,0020,0064,0016,00200,0014,00124,001,0014,00515,0046,0041,00813,00329,0061,00700,0086,00449,0042,00450,0036,00106,0090,0056,0046,00463,00460,00609,0023,00593,0060,00175,0051,00367,00457,0026,00759,0046,001040,0039,00627,00720,00439,0037,0032,0033,0035,0036,00491,00754,0049,00410,00411,0072,00240,00585,0034,0028,00437,0027,00392,0040,00871,0039,00555,00374,00502,0030,00532,0031,0035,007,006,004,003,001,001,002,001,007,003,008,001,006,004,002,009,001,006,0011,008,005,004,004,007,003,004,001,006,004,005,003,0010,001,005,003,001,0010,005,006,007,002,003,003,001,002,002,002,005,001,001,001,004,003,003,001,001,002,001,001,001,002,002,0013,0014,0025,0014,0025,0013,0015,009,0022,0026,0024,0014,0024,0015,0016,0020,0027,0018,0012,0021,0014,0019,0017,0013,0028,0018,0010,0027,0016,0015,0025,0083,00116,0063,0080,0055,00124,0022,0012,00115,00104,00106,0062,0078,00114,0040,00117,00136,00107,00138,0055,0074,0032,0056,00137,00137,00121,00123,00105,00144,00110,0074,0067,0067,00111,00108,00101,00112,00133,0039,00117,00119,00109,00118,0025,00125,00108,0075,0065,00134,0095,00100,0076,00118,0074,0035,00121,00128,0030,0086,0052,00142,0062,0052,0068,0079,0076,0064,0061,0061,0083,0060,0081,0066,0069,0084,0068,0046,0064,0064,0050,0092,0087,0036,0068,0029,0021,0085,0049,0093,0054,0070,0064,0078,0051,0068,0070,0037,0041,0060,0071,0029,0066,0053,0070,0050,0039,0053,0057,0063,0047,0061,0021,0040,0060,0066,0051,0043,0034,0074,0068,0081,0036,0054,0039,00154,00156,00128,00128,00180,0050,00133,0063,00141,00205,00138,0078,00195,00190,0092,00162,0064,00128,00195,00123,00107,00174,0098,00156,00203,00116,00171,0078,00163,00176,00203,0048,0041,0049,0064,0053,0021,0048,0052,0051,0028,0024,0046,0079,0060,0053,0013,0051,0032,0043,0013,0050,0057,0038,0032,0018,0047,0057,0022,0056,0066,0062,001,002,002,001,004,001,004,001,001,001,001,001,002,001,001,002,001,001,002,001,002,001,001,0040,0063,0045,0082,0044,0036,0088,0015,0019,0051,0071,0098,0039,0024,0014,0013,0076,0078,0053,0047,0037,0091,0044,0059,0029,0033,0055,0042,0018,00102,0075,001,001,001,001,001,001,00519,001230,00808,00632,001034,00563,00560,00822,00518,00615,00788,001111,00545,00551,00648,00480,001172,00959,00951,00675,00642,00780,00444,00698,00622,001126,00557,00502,00656,001672,001622,009,008,008,007,0012,0011,006,0010,0016,008,008,008,0012,007,009,0012,0011,005,008,0011,007,006,009,0010,006,0017,0012,0012,0012,007,0010,002,003,001,001,003,003,001,002,001,001,001,001,002,002,002,004,002,003,001,001,001,001,001,001,001,002,0053,00130,0018,0097,0029,0021,0013,0071,003,0016,00102,0018,00115,00114,003,0023,0031,0020,0013,00126,00126,0014,0025,00103,0022,0024,00117,0021,0051,0013,0081,0099,0033,0080,00119,0094,0032,0017,0019,0018,0028,00109,0071,0011,0035,0088,0029,004,00107,00131,005,0011,0022,0023,0088,00117,0068,0055,0030,0033,0052,0012,0050,0049,0029,00124,0020,00162,00186,0027,0048,0063,0072,00152,0056,0035,0032,00201,0036,0069,0066,0031,0044,00194,00133,00115,0055,00127,0052,00177,0044,00128,00176,00143,0029,00193,0061,0025,00154,0076,0046,00233,00184,00210,0040,0028,0064,0073,00229,0056,0066,00159,00152,0049,0014,00138,0048,0051,0086,00107,00175,00160,006,0038,0059,00108,00147,0041,0056,0021,00192,00100,0031,0038,00147,00138,00153,0044,00192,0025,00174,00152,00172,0068,0046,0051,0025,0017,00140,0047,0050,001,00136,00136,0018,0010,0071,0072,00159,0034,0060,0030,00166,0027,0096,00121,0040,0052,00122,0023,00143,00148,0014,0028,0042,0060,00151,0031,00170,0042,0042,00125,00158,0043,00118,0036,0093,0013,0032,00123,00143,002,0034,0087,0021,0056,0072,00127,00109,0045,00148,0039,00147,0021,0030,00124,00115,0014,00108,0034,00132,0014,0016,00142,0032,00130,0036,0031,00106,00102,0039,00138,00113,00111,00150,0027,0021,0024,0027,0040,0041,0073,0027,0060,0056,0014,0032,0041,0019,0028,00143,00113,00120,00110,0010,00133,0024,0044,00317,0067,00264,00437,0084,0015,00161,0093,00177,00103,00476,0051,00389,00112,0068,00402,00502,0097,00336,0054,00262,0095,00157,00128,00241,00346,0093,00341,00443,0070,00107,00425,0079,00335,00115,00108,0036,00193,00320,00491,0084,00130,00160,00104,00334,00248,00325,00163,00402,0093,00218,0075,00112,0092,00364,00334,00379,00278,00363,00129,00139,0056,00104,0035,0017,0055,0035,002,0073,0029,00109,0011,00100,00116,0034,0080,0029,0071,0023,0031,0022,0057,0087,0054,0012,0081,00102,0039,0036,0017,0037,0052,0045,00105,0017,0073,00113,0017,004,0025,0022,0065,0034,0027,0020,0027,0050,0065,0078,00113,0031,0044,0027,0015,0011,0024,0083,0087,00102,0084,007,0018,0061,0032,001,003,001,004,004,006,001,001,004,001,003,001,005,002,006,004,001,005,002,003,001,001,003,001,006,001,002,004,009,006,001,001,002,002,001,004,003,001,004,001,002,001,001,007,005,003,003,005,00113,0022,00118,0081,0020,0026,0070,0019,0042,0071,009,0038,00156,0060,0015,0078,00152,00148,0036,0033,0027,0040,0022,0027,00110,0067,00117,0039,00188,0025,0039,00131,00110,00104,0078,0027,0040,0025,00153,0019,00150,00119,0083,0044,004,00118,00109,0029,0038,0064,0010,0060,0067,0012,00149,00109,00124,0019,0026,0087,00157,0032,0010,00638,00122,00713,00481,0048,00517,0037,00428,0040,00471,00726,0066,00362,00102,0072,00427,00348,0052,0092,0055,00456,00464,00158,00112,0042,00484,0063,0071,00435,00421,00285,00384,0064,0068,00190,00548,00377,0061,0090,0066,00375,00536,0073,00201,00602,00450,00603,00457,0066,0071,0062,00584,0035,00378,0068,00455,0086,0056,00273,0043,0050,001,001,004,002,002,005,005,002,003,005,001,002,002,001,001,004,007,001,001,008,001,001,002,001,001,003,001,001,003,001,001,005,001,008,003,007,005,002,001,004,003,005,001,002,002,009,001,001,002,001,001,002,001,002,003,003,002,001,001,001,001,001,001,001,001,001,004,001,0017,0020,0015,0022,0030,0013,0012,0021,0015,0014,0029,0024,0028,0013,0022,0019,0021,0023,0011,0015,0019,0027,0014,0021,0017,0018,0027,0020,0013,0011,0019,0071,0062,00106,0095,0099,0086,0093,00122,00105,0057,0072,0085,0069,00102,0016,0015,0074,0081,0084,00154,0079,0010,0065,0079,0066,00121,0083,0099,0088,0022,0040,00155,00140,0095,0030,0082,00134,00128,00138,0089,00195,00129,00124,00103,0033,00112,0026,00125,0041,00158,00112,0064,00121,00139,00137,00134,00141,00108,00141,00125,0073,00129,0074,0092,0082,0033,0071,0037,0079,0080,00103,0068,0093,0094,0070,0086,0034,00104,00101,0047,0058,00105,0090,0088,0084,00106,00133,0098,0095,00111,00105,0037,0095,0069,0041,0047,0052,0098,0047,0076,0092,0073,0073,0094,0035,0095,0099,0042,0077,0082,0021,0076,0093,0075,0073,00118,0041,0058,0084,0091,0035,0029,0088,0079,00170,00193,00221,00125,00184,00204,00183,00180,0091,00244,00245,00159,00148,00135,00221,00247,00102,00275,00215,00128,0091,0075,00185,00108,00143,00141,00224,00110,00162,00199,00203,0047,0047,0048,0032,0051,0048,0048,0062,0043,0011,0025,0046,0055,0027,0027,0028,0060,0075,0025,0050,0034,0016,0050,0046,0018,0032,0044,0017,0013,0049,0045,001,002,003,003,001,002,002,002,001,002,002,001,004,001,002,001,001,001,005,003,001,001,001,001,0029,0045,0028,0031,0036,0043,0044,0052,0024,0026,0054,0062,0075,0087,0060,0035,0017,0044,0040,0053,0051,0028,0043,0065,0026,0038,0061,0031,0058,0054,0030,001,001,00623,00661,00789,001012,00625,00800,00565,00634,00787,00799,00627,00501,001238,00574,001058,00737,00904,00514,00478,00475,00984,00568,00932,00562,001259,00928,00539,00541,001394,00481,00522,0011,006,007,005,009,006,0010,007,006,007,0011,007,0012,007,002,0013,005,0011,0011,008,006,008,0014,0012,008,005,002,0011,0014,009,008,001,001,003,001,001,002,001,002,002,001,001,001,002,001,003,001,001,002,002,001,002,002,002,001,00</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
